--- a/Projects/INBEVCI/Data/Template.xlsx
+++ b/Projects/INBEVCI/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Top Brand Facings" sheetId="1" state="visible" r:id="rId2"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="96">
   <si>
     <t>Attribute_5</t>
   </si>
@@ -185,10 +185,10 @@
     <t>SKUs Competitor</t>
   </si>
   <si>
-    <t>8410590004890, 8410590004944</t>
-  </si>
-  <si>
-    <t>3155930006015, 3155930001355</t>
+    <t>8410590004890, 8410590004944, 8410590040058, 8410590040065</t>
+  </si>
+  <si>
+    <t>3155930006015, 3155930001355, 3155932014995</t>
   </si>
   <si>
     <t>District</t>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>Tropical 33 Can toghether</t>
-  </si>
-  <si>
-    <t>Bandido  together</t>
   </si>
   <si>
     <t>La Gomera</t>
@@ -397,7 +394,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -444,6 +441,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -614,7 +617,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -747,6 +750,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -775,15 +782,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,10 +923,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -4599,12 +4606,13 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.3927125506073"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
@@ -4637,10 +4645,10 @@
       <c r="A3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="34" t="n">
+      <c r="C3" s="35" t="n">
         <v>43163</v>
       </c>
       <c r="D3" s="10"/>
@@ -4648,208 +4656,208 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="35"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="35"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="35"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="35"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="35"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="35"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="35"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="35"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="35"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="35"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="35"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="35"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="35"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="35"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="35"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="35"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="35"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="35"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="35"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="35"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="35"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="35"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="35"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="35"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="35"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="35"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="35"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
@@ -4877,51 +4885,51 @@
   </sheetPr>
   <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -4930,16 +4938,16 @@
       <c r="D3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="43" t="n">
+      <c r="E3" s="44" t="n">
         <v>8414161001059</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -4948,16 +4956,16 @@
       <c r="D4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="43" t="n">
+      <c r="E4" s="44" t="n">
         <v>8414161001073</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -4966,16 +4974,16 @@
       <c r="D5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="43" t="n">
+      <c r="E5" s="44" t="n">
         <v>8414161001141</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -4984,16 +4992,16 @@
       <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="43" t="n">
+      <c r="E6" s="44" t="n">
         <v>8414161001172</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -5002,16 +5010,16 @@
       <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="43" t="n">
+      <c r="E7" s="44" t="n">
         <v>8414161001202</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -5020,16 +5028,16 @@
       <c r="D8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="43" t="n">
+      <c r="E8" s="44" t="n">
         <v>8414161000038</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -5038,16 +5046,16 @@
       <c r="D9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="43" t="n">
+      <c r="E9" s="44" t="n">
         <v>8414161000007</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -5056,16 +5064,16 @@
       <c r="D10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="43" t="n">
+      <c r="E10" s="44" t="n">
         <v>8414161000052</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -5074,16 +5082,16 @@
       <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="43" t="n">
+      <c r="E11" s="44" t="n">
         <v>8410590200117</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -5092,16 +5100,16 @@
       <c r="D12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="43" t="n">
+      <c r="E12" s="44" t="n">
         <v>8410590200094</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -5110,16 +5118,16 @@
       <c r="D13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="43" t="n">
+      <c r="E13" s="44" t="n">
         <v>8414161001042</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -5128,16 +5136,16 @@
       <c r="D14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="43" t="n">
+      <c r="E14" s="44" t="n">
         <v>8414161001080</v>
       </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -5146,16 +5154,16 @@
       <c r="D15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="43" t="n">
+      <c r="E15" s="44" t="n">
         <v>8414161001028</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -5164,16 +5172,16 @@
       <c r="D16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="43" t="n">
+      <c r="E16" s="44" t="n">
         <v>8414161001219</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -5182,16 +5190,16 @@
       <c r="D17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="43" t="n">
+      <c r="E17" s="44" t="n">
         <v>75032715</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -5200,16 +5208,16 @@
       <c r="D18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="43" t="n">
+      <c r="E18" s="44" t="n">
         <v>5410228141266</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -5218,16 +5226,16 @@
       <c r="D19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="43" t="n">
+      <c r="E19" s="44" t="n">
         <v>5410228142072</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -5236,16 +5244,16 @@
       <c r="D20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="43" t="n">
+      <c r="E20" s="44" t="n">
         <v>5410228142218</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -5254,13 +5262,13 @@
       <c r="D21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="43" t="n">
+      <c r="E21" s="44" t="n">
         <v>8410590004975</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -5272,13 +5280,13 @@
       <c r="D22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="43" t="n">
+      <c r="E22" s="44" t="n">
         <v>8410590004982</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -5290,13 +5298,13 @@
       <c r="D23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="43" t="n">
+      <c r="E23" s="44" t="n">
         <v>8410590004999</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -5308,13 +5316,13 @@
       <c r="D24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="43" t="n">
+      <c r="E24" s="44" t="n">
         <v>8410590004944</v>
       </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -5326,13 +5334,13 @@
       <c r="D25" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="43" t="n">
+      <c r="E25" s="44" t="n">
         <v>3155930001355</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -5344,13 +5352,13 @@
       <c r="D26" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="43" t="n">
+      <c r="E26" s="44" t="n">
         <v>8410590004890</v>
       </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -5362,13 +5370,13 @@
       <c r="D27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="43" t="n">
+      <c r="E27" s="44" t="n">
         <v>8410590004890</v>
       </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -5380,13 +5388,13 @@
       <c r="D28" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="43" t="n">
+      <c r="E28" s="44" t="n">
         <v>8410590004890</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -5398,13 +5406,13 @@
       <c r="D29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="43" t="n">
+      <c r="E29" s="44" t="n">
         <v>8410590004890</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -5416,13 +5424,13 @@
       <c r="D30" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="43" t="n">
+      <c r="E30" s="44" t="n">
         <v>3155930006015</v>
       </c>
       <c r="F30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -5434,13 +5442,13 @@
       <c r="D31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="43" t="n">
+      <c r="E31" s="44" t="n">
         <v>8414161041185</v>
       </c>
       <c r="F31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -5452,13 +5460,13 @@
       <c r="D32" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="43" t="n">
+      <c r="E32" s="44" t="n">
         <v>8410793262936</v>
       </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -5470,13 +5478,13 @@
       <c r="D33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="43" t="n">
+      <c r="E33" s="44" t="n">
         <v>8410590011416</v>
       </c>
       <c r="F33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -5488,13 +5496,13 @@
       <c r="D34" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="43" t="n">
+      <c r="E34" s="44" t="n">
         <v>8410590010419</v>
       </c>
       <c r="F34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -5506,13 +5514,13 @@
       <c r="D35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="43" t="n">
+      <c r="E35" s="44" t="n">
         <v>8414161001073</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -5524,13 +5532,13 @@
       <c r="D36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="43" t="n">
+      <c r="E36" s="44" t="n">
         <v>8410590012543</v>
       </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -5542,12 +5550,12 @@
       <c r="D37" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="43" t="n">
+      <c r="E37" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -5559,12 +5567,12 @@
       <c r="D38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="43" t="n">
+      <c r="E38" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -5576,12 +5584,12 @@
       <c r="D39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="43" t="n">
+      <c r="E39" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -5593,12 +5601,12 @@
       <c r="D40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="43" t="n">
+      <c r="E40" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -5610,12 +5618,12 @@
       <c r="D41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="43" t="n">
+      <c r="E41" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -5627,12 +5635,12 @@
       <c r="D42" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="43" t="n">
+      <c r="E42" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -5644,12 +5652,12 @@
       <c r="D43" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="43" t="n">
+      <c r="E43" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -5661,12 +5669,12 @@
       <c r="D44" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="43" t="n">
+      <c r="E44" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -5678,12 +5686,12 @@
       <c r="D45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="43" t="n">
+      <c r="E45" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -5695,12 +5703,12 @@
       <c r="D46" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="43" t="n">
+      <c r="E46" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -5712,12 +5720,12 @@
       <c r="D47" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="43" t="n">
+      <c r="E47" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -5729,12 +5737,12 @@
       <c r="D48" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="43" t="n">
+      <c r="E48" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -5746,12 +5754,12 @@
       <c r="D49" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="43" t="n">
+      <c r="E49" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -5763,12 +5771,12 @@
       <c r="D50" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="43" t="n">
+      <c r="E50" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -5780,12 +5788,12 @@
       <c r="D51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="43" t="n">
+      <c r="E51" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -5797,12 +5805,12 @@
       <c r="D52" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="43" t="n">
+      <c r="E52" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="14" t="s">
@@ -5814,12 +5822,12 @@
       <c r="D53" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="43" t="n">
+      <c r="E53" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -5831,12 +5839,12 @@
       <c r="D54" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="43" t="n">
+      <c r="E54" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="14" t="s">
@@ -5848,12 +5856,12 @@
       <c r="D55" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="43" t="n">
+      <c r="E55" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="14" t="s">
@@ -5865,12 +5873,12 @@
       <c r="D56" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="43" t="n">
+      <c r="E56" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="14" t="s">
@@ -5882,12 +5890,12 @@
       <c r="D57" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="43" t="n">
+      <c r="E57" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="14" t="s">
@@ -5899,16 +5907,16 @@
       <c r="D58" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="43" t="n">
+      <c r="E58" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>39</v>
@@ -5916,12 +5924,12 @@
       <c r="D59" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="43" t="n">
+      <c r="E59" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="14" t="s">
@@ -5933,12 +5941,12 @@
       <c r="D60" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="43" t="n">
+      <c r="E60" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -5950,12 +5958,12 @@
       <c r="D61" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="43" t="n">
+      <c r="E61" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -5967,12 +5975,12 @@
       <c r="D62" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="43" t="n">
+      <c r="E62" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -5984,13 +5992,13 @@
       <c r="D63" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="43" t="n">
+      <c r="E63" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="41" t="s">
-        <v>88</v>
+      <c r="A64" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>38</v>
@@ -6001,13 +6009,13 @@
       <c r="D64" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="43" t="n">
+      <c r="E64" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="41" t="s">
-        <v>88</v>
+      <c r="A65" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>38</v>
@@ -6018,13 +6026,13 @@
       <c r="D65" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="43" t="n">
+      <c r="E65" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="41" t="s">
-        <v>88</v>
+      <c r="A66" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>42</v>
@@ -6035,13 +6043,13 @@
       <c r="D66" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="43" t="n">
+      <c r="E66" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="41" t="s">
-        <v>88</v>
+      <c r="A67" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>42</v>
@@ -6052,13 +6060,13 @@
       <c r="D67" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="43" t="n">
+      <c r="E67" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="41" t="s">
-        <v>88</v>
+      <c r="A68" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>42</v>
@@ -6069,13 +6077,13 @@
       <c r="D68" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="43" t="n">
+      <c r="E68" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="41" t="s">
-        <v>88</v>
+      <c r="A69" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>42</v>
@@ -6086,13 +6094,13 @@
       <c r="D69" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="43" t="n">
+      <c r="E69" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="41" t="s">
-        <v>88</v>
+      <c r="A70" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>47</v>
@@ -6103,13 +6111,13 @@
       <c r="D70" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E70" s="43" t="n">
+      <c r="E70" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="41" t="s">
-        <v>88</v>
+      <c r="A71" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>47</v>
@@ -6120,13 +6128,13 @@
       <c r="D71" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="43" t="n">
+      <c r="E71" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="41" t="s">
-        <v>88</v>
+      <c r="A72" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>50</v>
@@ -6137,13 +6145,13 @@
       <c r="D72" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="43" t="n">
+      <c r="E72" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="41" t="s">
-        <v>88</v>
+      <c r="A73" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>50</v>
@@ -6154,13 +6162,13 @@
       <c r="D73" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="43" t="n">
+      <c r="E73" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="41" t="s">
-        <v>88</v>
+      <c r="A74" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>53</v>
@@ -6171,13 +6179,13 @@
       <c r="D74" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="43" t="n">
+      <c r="E74" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="41" t="s">
-        <v>88</v>
+      <c r="A75" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>53</v>
@@ -6188,13 +6196,13 @@
       <c r="D75" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="43" t="n">
+      <c r="E75" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="41" t="s">
-        <v>88</v>
+      <c r="A76" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>56</v>
@@ -6205,13 +6213,13 @@
       <c r="D76" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="43" t="n">
+      <c r="E76" s="44" t="n">
         <v>8414161001028</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="41" t="s">
-        <v>88</v>
+      <c r="A77" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>56</v>
@@ -6222,13 +6230,13 @@
       <c r="D77" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="43" t="n">
+      <c r="E77" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="41" t="s">
-        <v>88</v>
+      <c r="A78" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>59</v>
@@ -6239,13 +6247,13 @@
       <c r="D78" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="43" t="n">
+      <c r="E78" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="41" t="s">
-        <v>88</v>
+      <c r="A79" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>59</v>
@@ -6256,13 +6264,13 @@
       <c r="D79" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="43" t="n">
+      <c r="E79" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="41" t="s">
-        <v>88</v>
+      <c r="A80" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>62</v>
@@ -6273,13 +6281,13 @@
       <c r="D80" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="43" t="n">
+      <c r="E80" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="41" t="s">
-        <v>88</v>
+      <c r="A81" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>62</v>
@@ -6290,13 +6298,13 @@
       <c r="D81" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="43" t="n">
+      <c r="E81" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="41" t="s">
-        <v>88</v>
+      <c r="A82" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>65</v>
@@ -6307,13 +6315,13 @@
       <c r="D82" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E82" s="43" t="n">
+      <c r="E82" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="41" t="s">
-        <v>88</v>
+      <c r="A83" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>65</v>
@@ -6324,13 +6332,13 @@
       <c r="D83" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="43" t="n">
+      <c r="E83" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="41" t="s">
-        <v>88</v>
+      <c r="A84" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>65</v>
@@ -6341,13 +6349,13 @@
       <c r="D84" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E84" s="43" t="n">
+      <c r="E84" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="41" t="s">
-        <v>88</v>
+      <c r="A85" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>69</v>
@@ -6358,13 +6366,13 @@
       <c r="D85" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E85" s="43" t="n">
+      <c r="E85" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="41" t="s">
-        <v>88</v>
+      <c r="A86" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>69</v>
@@ -6375,13 +6383,13 @@
       <c r="D86" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="43" t="n">
+      <c r="E86" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="41" t="s">
-        <v>88</v>
+      <c r="A87" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>69</v>
@@ -6392,13 +6400,13 @@
       <c r="D87" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E87" s="43" t="n">
+      <c r="E87" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="41" t="s">
-        <v>88</v>
+      <c r="A88" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>69</v>
@@ -6409,13 +6417,13 @@
       <c r="D88" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E88" s="43" t="n">
+      <c r="E88" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="41" t="s">
-        <v>88</v>
+      <c r="A89" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>69</v>
@@ -6426,13 +6434,13 @@
       <c r="D89" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="43" t="n">
+      <c r="E89" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="41" t="s">
-        <v>88</v>
+      <c r="A90" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>69</v>
@@ -6443,13 +6451,13 @@
       <c r="D90" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E90" s="43" t="n">
+      <c r="E90" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="41" t="s">
-        <v>88</v>
+      <c r="A91" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>69</v>
@@ -6460,13 +6468,13 @@
       <c r="D91" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E91" s="43" t="n">
+      <c r="E91" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="41" t="s">
-        <v>88</v>
+      <c r="A92" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>77</v>
@@ -6477,13 +6485,13 @@
       <c r="D92" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E92" s="43" t="n">
+      <c r="E92" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="41" t="s">
-        <v>88</v>
+      <c r="A93" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>77</v>
@@ -6494,13 +6502,13 @@
       <c r="D93" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E93" s="43" t="n">
+      <c r="E93" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="41" t="s">
-        <v>89</v>
+      <c r="A94" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>81</v>
@@ -6511,13 +6519,13 @@
       <c r="D94" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E94" s="43" t="n">
+      <c r="E94" s="44" t="n">
         <v>8410590011416</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="41" t="s">
-        <v>89</v>
+      <c r="A95" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>81</v>
@@ -6528,13 +6536,13 @@
       <c r="D95" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="43" t="n">
+      <c r="E95" s="44" t="n">
         <v>8410590010419</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="41" t="s">
-        <v>89</v>
+      <c r="A96" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>81</v>
@@ -6545,13 +6553,13 @@
       <c r="D96" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="43" t="n">
+      <c r="E96" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="41" t="s">
-        <v>89</v>
+      <c r="A97" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>84</v>
@@ -6562,13 +6570,13 @@
       <c r="D97" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E97" s="43" t="n">
+      <c r="E97" s="44" t="n">
         <v>8410590012543</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="41" t="s">
-        <v>89</v>
+      <c r="A98" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>86</v>
@@ -6579,13 +6587,13 @@
       <c r="D98" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="43" t="n">
+      <c r="E98" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="41" t="s">
-        <v>89</v>
+      <c r="A99" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>42</v>
@@ -6596,13 +6604,13 @@
       <c r="D99" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E99" s="43" t="n">
+      <c r="E99" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="41" t="s">
-        <v>89</v>
+      <c r="A100" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>42</v>
@@ -6613,13 +6621,13 @@
       <c r="D100" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E100" s="43" t="n">
+      <c r="E100" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="41" t="s">
-        <v>89</v>
+      <c r="A101" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>42</v>
@@ -6630,13 +6638,13 @@
       <c r="D101" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="43" t="n">
+      <c r="E101" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="41" t="s">
-        <v>89</v>
+      <c r="A102" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>42</v>
@@ -6647,13 +6655,13 @@
       <c r="D102" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E102" s="43" t="n">
+      <c r="E102" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="41" t="s">
-        <v>89</v>
+      <c r="A103" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>50</v>
@@ -6664,13 +6672,13 @@
       <c r="D103" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="43" t="n">
+      <c r="E103" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="41" t="s">
-        <v>89</v>
+      <c r="A104" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>50</v>
@@ -6678,16 +6686,16 @@
       <c r="C104" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="44" t="s">
+      <c r="D104" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="43" t="n">
+      <c r="E104" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="41" t="s">
-        <v>89</v>
+      <c r="A105" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>47</v>
@@ -6698,13 +6706,13 @@
       <c r="D105" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E105" s="43" t="n">
+      <c r="E105" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="41" t="s">
-        <v>89</v>
+      <c r="A106" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>47</v>
@@ -6715,13 +6723,13 @@
       <c r="D106" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E106" s="43" t="n">
+      <c r="E106" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="41" t="s">
-        <v>89</v>
+      <c r="A107" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>65</v>
@@ -6732,13 +6740,13 @@
       <c r="D107" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E107" s="43" t="n">
+      <c r="E107" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="41" t="s">
-        <v>89</v>
+      <c r="A108" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>65</v>
@@ -6749,13 +6757,13 @@
       <c r="D108" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E108" s="43" t="n">
+      <c r="E108" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="41" t="s">
-        <v>89</v>
+      <c r="A109" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>65</v>
@@ -6766,13 +6774,13 @@
       <c r="D109" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E109" s="43" t="n">
+      <c r="E109" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="41" t="s">
-        <v>89</v>
+      <c r="A110" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>59</v>
@@ -6783,13 +6791,13 @@
       <c r="D110" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E110" s="43" t="n">
+      <c r="E110" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="41" t="s">
-        <v>89</v>
+      <c r="A111" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>59</v>
@@ -6800,13 +6808,13 @@
       <c r="D111" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E111" s="43" t="n">
+      <c r="E111" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="41" t="s">
-        <v>89</v>
+      <c r="A112" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>62</v>
@@ -6817,13 +6825,13 @@
       <c r="D112" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E112" s="43" t="n">
+      <c r="E112" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="41" t="s">
-        <v>89</v>
+      <c r="A113" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>62</v>
@@ -6834,13 +6842,13 @@
       <c r="D113" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="43" t="n">
+      <c r="E113" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="41" t="s">
-        <v>89</v>
+      <c r="A114" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>77</v>
@@ -6851,15 +6859,15 @@
       <c r="D114" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E114" s="43" t="n">
+      <c r="E114" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="42" t="s">
+      <c r="A115" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -6868,15 +6876,15 @@
       <c r="D115" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E115" s="43" t="n">
+      <c r="E115" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B116" s="42" t="s">
+      <c r="A116" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -6885,15 +6893,15 @@
       <c r="D116" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E116" s="43" t="n">
+      <c r="E116" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B117" s="42" t="s">
+      <c r="A117" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -6902,15 +6910,15 @@
       <c r="D117" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="43" t="n">
+      <c r="E117" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="42" t="s">
+      <c r="A118" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C118" s="14" t="s">
@@ -6919,15 +6927,15 @@
       <c r="D118" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E118" s="43" t="n">
+      <c r="E118" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B119" s="42" t="s">
+      <c r="A119" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -6936,16 +6944,16 @@
       <c r="D119" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E119" s="43" t="n">
+      <c r="E119" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="41" t="s">
-        <v>89</v>
+      <c r="A120" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>39</v>
@@ -6953,13 +6961,13 @@
       <c r="D120" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E120" s="43" t="n">
+      <c r="E120" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="41" t="s">
-        <v>89</v>
+      <c r="A121" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>69</v>
@@ -6970,13 +6978,13 @@
       <c r="D121" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E121" s="43" t="n">
+      <c r="E121" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="41" t="s">
-        <v>89</v>
+      <c r="A122" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>69</v>
@@ -6987,13 +6995,13 @@
       <c r="D122" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E122" s="43" t="n">
+      <c r="E122" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="41" t="s">
-        <v>89</v>
+      <c r="A123" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>69</v>
@@ -7004,13 +7012,13 @@
       <c r="D123" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E123" s="43" t="n">
+      <c r="E123" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="41" t="s">
-        <v>89</v>
+      <c r="A124" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>69</v>
@@ -7021,16 +7029,16 @@
       <c r="D124" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E124" s="43" t="n">
+      <c r="E124" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>39</v>
@@ -7038,16 +7046,16 @@
       <c r="D125" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E125" s="43" t="n">
+      <c r="E125" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>39</v>
@@ -7055,16 +7063,16 @@
       <c r="D126" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E126" s="43" t="n">
+      <c r="E126" s="44" t="n">
         <v>8410590011416</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>39</v>
@@ -7072,16 +7080,16 @@
       <c r="D127" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E127" s="43" t="n">
+      <c r="E127" s="44" t="n">
         <v>8410590010419</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>39</v>
@@ -7089,13 +7097,13 @@
       <c r="D128" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E128" s="43" t="n">
+      <c r="E128" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="41" t="s">
-        <v>90</v>
+      <c r="A129" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>84</v>
@@ -7106,13 +7114,13 @@
       <c r="D129" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E129" s="43" t="n">
+      <c r="E129" s="44" t="n">
         <v>8410590012543</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="41" t="s">
-        <v>90</v>
+      <c r="A130" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>86</v>
@@ -7123,13 +7131,13 @@
       <c r="D130" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E130" s="43" t="n">
+      <c r="E130" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="41" t="s">
-        <v>90</v>
+      <c r="A131" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>42</v>
@@ -7140,13 +7148,13 @@
       <c r="D131" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E131" s="43" t="n">
+      <c r="E131" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="41" t="s">
-        <v>90</v>
+      <c r="A132" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>42</v>
@@ -7157,13 +7165,13 @@
       <c r="D132" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E132" s="43" t="n">
+      <c r="E132" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="41" t="s">
-        <v>90</v>
+      <c r="A133" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>42</v>
@@ -7174,13 +7182,13 @@
       <c r="D133" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="43" t="n">
+      <c r="E133" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="41" t="s">
-        <v>90</v>
+      <c r="A134" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>42</v>
@@ -7191,13 +7199,13 @@
       <c r="D134" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E134" s="43" t="n">
+      <c r="E134" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="41" t="s">
-        <v>90</v>
+      <c r="A135" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>50</v>
@@ -7208,13 +7216,13 @@
       <c r="D135" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E135" s="43" t="n">
+      <c r="E135" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="41" t="s">
-        <v>90</v>
+      <c r="A136" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>50</v>
@@ -7225,13 +7233,13 @@
       <c r="D136" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E136" s="43" t="n">
+      <c r="E136" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="41" t="s">
-        <v>90</v>
+      <c r="A137" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B137" s="14" t="s">
         <v>47</v>
@@ -7242,13 +7250,13 @@
       <c r="D137" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E137" s="43" t="n">
+      <c r="E137" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="41" t="s">
-        <v>90</v>
+      <c r="A138" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B138" s="14" t="s">
         <v>47</v>
@@ -7259,13 +7267,13 @@
       <c r="D138" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E138" s="43" t="n">
+      <c r="E138" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="41" t="s">
-        <v>90</v>
+      <c r="A139" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>65</v>
@@ -7276,13 +7284,13 @@
       <c r="D139" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E139" s="43" t="n">
+      <c r="E139" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="41" t="s">
-        <v>90</v>
+      <c r="A140" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>65</v>
@@ -7293,15 +7301,15 @@
       <c r="D140" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E140" s="43" t="n">
+      <c r="E140" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B141" s="42" t="s">
+      <c r="A141" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C141" s="14" t="s">
@@ -7310,15 +7318,15 @@
       <c r="D141" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E141" s="43" t="n">
+      <c r="E141" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B142" s="42" t="s">
+      <c r="A142" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C142" s="14" t="s">
@@ -7327,15 +7335,15 @@
       <c r="D142" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E142" s="43" t="n">
+      <c r="E142" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B143" s="42" t="s">
+      <c r="A143" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B143" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="14" t="s">
@@ -7344,15 +7352,15 @@
       <c r="D143" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E143" s="43" t="n">
+      <c r="E143" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B144" s="42" t="s">
+      <c r="A144" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C144" s="14" t="s">
@@ -7361,15 +7369,15 @@
       <c r="D144" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E144" s="43" t="n">
+      <c r="E144" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B145" s="42" t="s">
+      <c r="A145" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -7378,15 +7386,15 @@
       <c r="D145" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E145" s="43" t="n">
+      <c r="E145" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B146" s="42" t="s">
+      <c r="A146" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C146" s="14" t="s">
@@ -7395,15 +7403,15 @@
       <c r="D146" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E146" s="43" t="n">
+      <c r="E146" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B147" s="42" t="s">
+      <c r="A147" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C147" s="14" t="s">
@@ -7412,15 +7420,15 @@
       <c r="D147" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E147" s="43" t="n">
+      <c r="E147" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B148" s="42" t="s">
+      <c r="A148" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B148" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C148" s="14" t="s">
@@ -7429,15 +7437,15 @@
       <c r="D148" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E148" s="43" t="n">
+      <c r="E148" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B149" s="42" t="s">
+      <c r="A149" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -7446,15 +7454,15 @@
       <c r="D149" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E149" s="43" t="n">
+      <c r="E149" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B150" s="42" t="s">
+      <c r="A150" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C150" s="14" t="s">
@@ -7463,15 +7471,15 @@
       <c r="D150" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E150" s="43" t="n">
+      <c r="E150" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B151" s="42" t="s">
+      <c r="A151" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B151" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -7480,16 +7488,16 @@
       <c r="D151" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E151" s="43" t="n">
+      <c r="E151" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B152" s="42" t="s">
-        <v>87</v>
+      <c r="A152" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>39</v>
@@ -7497,15 +7505,15 @@
       <c r="D152" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E152" s="43" t="n">
+      <c r="E152" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B153" s="42" t="s">
+      <c r="A153" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -7514,15 +7522,15 @@
       <c r="D153" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E153" s="43" t="n">
+      <c r="E153" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B154" s="42" t="s">
+      <c r="A154" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C154" s="14" t="s">
@@ -7531,15 +7539,15 @@
       <c r="D154" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E154" s="43" t="n">
+      <c r="E154" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B155" s="42" t="s">
+      <c r="A155" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B155" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -7548,15 +7556,15 @@
       <c r="D155" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E155" s="43" t="n">
+      <c r="E155" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B156" s="42" t="s">
+      <c r="A156" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B156" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C156" s="14" t="s">
@@ -7565,15 +7573,15 @@
       <c r="D156" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E156" s="43" t="n">
+      <c r="E156" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B157" s="42" t="s">
+      <c r="A157" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C157" s="14" t="s">
@@ -7582,15 +7590,15 @@
       <c r="D157" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E157" s="43" t="n">
+      <c r="E157" s="44" t="n">
         <v>8414161001028</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B158" s="42" t="s">
+      <c r="A158" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B158" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="14" t="s">
@@ -7599,15 +7607,15 @@
       <c r="D158" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E158" s="43" t="n">
+      <c r="E158" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B159" s="42" t="s">
+      <c r="A159" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B159" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -7616,13 +7624,13 @@
       <c r="D159" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E159" s="43" t="n">
+      <c r="E159" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="41" t="s">
-        <v>90</v>
+      <c r="A160" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>38</v>
@@ -7633,16 +7641,16 @@
       <c r="D160" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E160" s="43" t="n">
+      <c r="E160" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="41" t="s">
-        <v>92</v>
+      <c r="A161" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>39</v>
@@ -7650,16 +7658,16 @@
       <c r="D161" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E161" s="43" t="n">
+      <c r="E161" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="41" t="s">
-        <v>92</v>
+      <c r="A162" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>39</v>
@@ -7667,16 +7675,16 @@
       <c r="D162" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E162" s="43" t="n">
+      <c r="E162" s="44" t="n">
         <v>8410590011416</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="41" t="s">
-        <v>92</v>
+      <c r="A163" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>39</v>
@@ -7684,16 +7692,16 @@
       <c r="D163" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E163" s="43" t="n">
+      <c r="E163" s="44" t="n">
         <v>8410590010419</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="41" t="s">
-        <v>92</v>
+      <c r="A164" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>39</v>
@@ -7701,13 +7709,13 @@
       <c r="D164" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E164" s="43" t="n">
+      <c r="E164" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="41" t="s">
-        <v>92</v>
+      <c r="A165" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B165" s="14" t="s">
         <v>84</v>
@@ -7718,13 +7726,13 @@
       <c r="D165" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E165" s="43" t="n">
+      <c r="E165" s="44" t="n">
         <v>8410590012543</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="41" t="s">
-        <v>92</v>
+      <c r="A166" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>86</v>
@@ -7735,13 +7743,13 @@
       <c r="D166" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E166" s="43" t="n">
+      <c r="E166" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="41" t="s">
-        <v>92</v>
+      <c r="A167" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>42</v>
@@ -7752,13 +7760,13 @@
       <c r="D167" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E167" s="43" t="n">
+      <c r="E167" s="44" t="n">
         <v>8414161001141</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="41" t="s">
-        <v>92</v>
+      <c r="A168" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>42</v>
@@ -7769,13 +7777,13 @@
       <c r="D168" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E168" s="43" t="n">
+      <c r="E168" s="44" t="n">
         <v>8414161001172</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="41" t="s">
-        <v>92</v>
+      <c r="A169" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>42</v>
@@ -7786,13 +7794,13 @@
       <c r="D169" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="43" t="n">
+      <c r="E169" s="44" t="n">
         <v>8414161001202</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="41" t="s">
-        <v>92</v>
+      <c r="A170" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>42</v>
@@ -7803,13 +7811,13 @@
       <c r="D170" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E170" s="43" t="n">
+      <c r="E170" s="44" t="n">
         <v>8414161000038</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="41" t="s">
-        <v>92</v>
+      <c r="A171" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>50</v>
@@ -7820,13 +7828,13 @@
       <c r="D171" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E171" s="43" t="n">
+      <c r="E171" s="44" t="n">
         <v>8410590200117</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="41" t="s">
-        <v>92</v>
+      <c r="A172" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>50</v>
@@ -7837,13 +7845,13 @@
       <c r="D172" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E172" s="43" t="n">
+      <c r="E172" s="44" t="n">
         <v>8410590200094</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="41" t="s">
-        <v>92</v>
+      <c r="A173" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>47</v>
@@ -7854,13 +7862,13 @@
       <c r="D173" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E173" s="43" t="n">
+      <c r="E173" s="44" t="n">
         <v>8414161000052</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="41" t="s">
-        <v>92</v>
+      <c r="A174" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>47</v>
@@ -7871,13 +7879,13 @@
       <c r="D174" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E174" s="43" t="n">
+      <c r="E174" s="44" t="n">
         <v>8414161000007</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="41" t="s">
-        <v>92</v>
+      <c r="A175" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>65</v>
@@ -7888,13 +7896,13 @@
       <c r="D175" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E175" s="43" t="n">
+      <c r="E175" s="44" t="n">
         <v>8410590004975</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="41" t="s">
-        <v>92</v>
+      <c r="A176" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>65</v>
@@ -7905,13 +7913,13 @@
       <c r="D176" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E176" s="43" t="n">
+      <c r="E176" s="44" t="n">
         <v>8410590004982</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="41" t="s">
-        <v>92</v>
+      <c r="A177" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>65</v>
@@ -7922,13 +7930,13 @@
       <c r="D177" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E177" s="43" t="n">
+      <c r="E177" s="44" t="n">
         <v>8410590004999</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="41" t="s">
-        <v>92</v>
+      <c r="A178" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>59</v>
@@ -7939,13 +7947,13 @@
       <c r="D178" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E178" s="43" t="n">
+      <c r="E178" s="44" t="n">
         <v>75032715</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="41" t="s">
-        <v>92</v>
+      <c r="A179" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>59</v>
@@ -7956,13 +7964,13 @@
       <c r="D179" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E179" s="43" t="n">
+      <c r="E179" s="44" t="n">
         <v>5410228141266</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="41" t="s">
-        <v>92</v>
+      <c r="A180" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>62</v>
@@ -7973,13 +7981,13 @@
       <c r="D180" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E180" s="43" t="n">
+      <c r="E180" s="44" t="n">
         <v>5410228142072</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="41" t="s">
-        <v>92</v>
+      <c r="A181" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>62</v>
@@ -7990,13 +7998,13 @@
       <c r="D181" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E181" s="43" t="n">
+      <c r="E181" s="44" t="n">
         <v>5410228142218</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="41" t="s">
-        <v>92</v>
+      <c r="A182" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>77</v>
@@ -8007,13 +8015,13 @@
       <c r="D182" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E182" s="43" t="n">
+      <c r="E182" s="44" t="n">
         <v>8414161041185</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="41" t="s">
-        <v>92</v>
+      <c r="A183" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>77</v>
@@ -8024,13 +8032,13 @@
       <c r="D183" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E183" s="43" t="n">
+      <c r="E183" s="44" t="n">
         <v>8410793262936</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="41" t="s">
-        <v>92</v>
+      <c r="A184" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>53</v>
@@ -8041,13 +8049,13 @@
       <c r="D184" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E184" s="43" t="n">
+      <c r="E184" s="44" t="n">
         <v>8414161001042</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="41" t="s">
-        <v>92</v>
+      <c r="A185" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>53</v>
@@ -8058,13 +8066,13 @@
       <c r="D185" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E185" s="43" t="n">
+      <c r="E185" s="44" t="n">
         <v>8414161001080</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="41" t="s">
-        <v>92</v>
+      <c r="A186" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>69</v>
@@ -8075,13 +8083,13 @@
       <c r="D186" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E186" s="43" t="n">
+      <c r="E186" s="44" t="n">
         <v>8410590004944</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="41" t="s">
-        <v>92</v>
+      <c r="A187" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>69</v>
@@ -8092,16 +8100,16 @@
       <c r="D187" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E187" s="43" t="n">
+      <c r="E187" s="44" t="n">
         <v>3155930001355</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="41" t="s">
-        <v>92</v>
+      <c r="A188" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C188" s="14" t="s">
         <v>39</v>
@@ -8109,13 +8117,13 @@
       <c r="D188" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E188" s="43" t="n">
+      <c r="E188" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="41" t="s">
-        <v>92</v>
+      <c r="A189" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>69</v>
@@ -8126,13 +8134,13 @@
       <c r="D189" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E189" s="43" t="n">
+      <c r="E189" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="41" t="s">
-        <v>92</v>
+      <c r="A190" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>69</v>
@@ -8143,13 +8151,13 @@
       <c r="D190" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E190" s="43" t="n">
+      <c r="E190" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="41" t="s">
-        <v>92</v>
+      <c r="A191" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>69</v>
@@ -8160,13 +8168,13 @@
       <c r="D191" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E191" s="43" t="n">
+      <c r="E191" s="44" t="n">
         <v>8410590004890</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="41" t="s">
-        <v>92</v>
+      <c r="A192" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>69</v>
@@ -8177,13 +8185,13 @@
       <c r="D192" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E192" s="43" t="n">
+      <c r="E192" s="44" t="n">
         <v>3155930006015</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="41" t="s">
-        <v>92</v>
+      <c r="A193" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>56</v>
@@ -8194,13 +8202,13 @@
       <c r="D193" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E193" s="43" t="n">
+      <c r="E193" s="44" t="n">
         <v>8414161001028</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="41" t="s">
-        <v>92</v>
+      <c r="A194" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>56</v>
@@ -8211,13 +8219,13 @@
       <c r="D194" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E194" s="43" t="n">
+      <c r="E194" s="44" t="n">
         <v>8414161001219</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="41" t="s">
-        <v>92</v>
+      <c r="A195" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>38</v>
@@ -8228,13 +8236,13 @@
       <c r="D195" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E195" s="43" t="n">
+      <c r="E195" s="44" t="n">
         <v>8414161001059</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="41" t="s">
-        <v>92</v>
+      <c r="A196" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>38</v>
@@ -8245,7 +8253,7 @@
       <c r="D196" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E196" s="43" t="n">
+      <c r="E196" s="44" t="n">
         <v>8414161001073</v>
       </c>
     </row>
@@ -8272,92 +8280,92 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="n">
+      <c r="A3" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="46" t="n">
+      <c r="D3" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="n">
+      <c r="A4" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="46" t="n">
+      <c r="D4" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="n">
+      <c r="A5" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="46" t="n">
+      <c r="B5" s="47" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="46" t="n">
+      <c r="C5" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="46" t="n">
+      <c r="D5" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="n">
+      <c r="A6" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="47" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="46" t="n">
+      <c r="D6" s="47" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Projects/INBEVCI/Data/Template.xlsx
+++ b/Projects/INBEVCI/Data/Template.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Shared\Implementation\Projects database\EUROPE\INBEV_CI\Currently on K engine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB1DD44-6CC2-4F81-BF56-E5FFA5CDE2CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Top Brand Facings" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Total Brand Comparison" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Top Brand Block" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="golden_shelves" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Top Brand Facings" sheetId="1" r:id="rId1"/>
+    <sheet name="Total Brand Comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="Top Brand Block" sheetId="3" r:id="rId3"/>
+    <sheet name="golden_shelves" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Top Brand Facings'!$A$2:$E$476</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Top Brand Block'!$A$2:$E$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Top Brand Facings'!$A$2:$E$61</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,13 +31,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="98">
   <si>
     <t>Attribute_5</t>
   </si>
@@ -381,18 +387,22 @@
   </si>
   <si>
     <t>num. ignored from bottom</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>LPLZT&amp;SPMC:Superm. grande&amp;Turistica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -401,21 +411,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -449,7 +444,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -462,6 +457,24 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -490,40 +503,56 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="13">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color rgb="FF808080"/>
       </top>
@@ -532,49 +561,83 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -589,243 +652,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="57">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
         <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -835,10 +811,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
         <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -847,6 +821,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -905,40 +880,549 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5B6130-A621-44C0-9CED-36735C8C2C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F049A64E-C908-4F47-A751-37895F0E1092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930D0FED-C2C6-44AB-A143-980D5B05236E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D58E6A2-E094-4619-865F-1BEBB181C237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E476"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="47.85546875"/>
+    <col min="2" max="2" width="19.85546875"/>
+    <col min="3" max="3" width="16.42578125" style="1"/>
+    <col min="4" max="4" width="13"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,3622 +1439,3828 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>43163</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="9">
         <v>43163</v>
       </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="9">
         <v>43163</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>43163</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>43163</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>43163</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>43163</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>43163</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>43163</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="9">
         <v>43163</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="9">
         <v>43163</v>
       </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="9">
         <v>43163</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="11">
         <v>2</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="9">
         <v>43163</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="11">
         <v>3</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="9">
         <v>43163</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <v>2</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="9">
         <v>43163</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="9">
         <v>43163</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="8">
         <v>3</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="9">
         <v>43163</v>
       </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="8">
         <v>3</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="9">
         <v>43163</v>
       </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="8">
         <v>2</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="9">
         <v>43163</v>
       </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="9">
         <v>43163</v>
       </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="11">
         <v>3</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="9">
         <v>43163</v>
       </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="11">
         <v>3</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="9">
         <v>43163</v>
       </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="11">
         <v>2</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="9">
         <v>43163</v>
       </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="9">
         <v>43163</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="11">
         <v>2</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="9">
         <v>43163</v>
       </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="11">
         <v>2</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="9">
         <v>43163</v>
       </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="47">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="11">
         <v>2</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="9">
         <v>43163</v>
       </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="47"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C30" s="11">
         <v>2</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="9">
         <v>43163</v>
       </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="47"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="8">
         <v>3</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="9">
         <v>43163</v>
       </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="47"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="8">
         <v>3</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="9">
         <v>43163</v>
       </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="47"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="8">
         <v>2</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="9">
         <v>43163</v>
       </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="47"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="11" t="n">
+      <c r="C34" s="11">
         <v>2</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D34" s="9">
         <v>43163</v>
       </c>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="47"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="C35" s="11">
         <v>3</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="9">
         <v>43163</v>
       </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C36" s="11">
         <v>3</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="9">
         <v>43163</v>
       </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="47"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="11" t="n">
+      <c r="C37" s="11">
         <v>2</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="9">
         <v>43163</v>
       </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="47"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C38" s="11">
         <v>2</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="D38" s="9">
         <v>43163</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="47"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="11" t="n">
+      <c r="C39" s="11">
         <v>2</v>
       </c>
-      <c r="D39" s="9" t="n">
+      <c r="D39" s="9">
         <v>43163</v>
       </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C40" s="11">
         <v>2</v>
       </c>
-      <c r="D40" s="9" t="n">
+      <c r="D40" s="9">
         <v>43163</v>
       </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="E40" s="47"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="51">
+        <v>2</v>
+      </c>
+      <c r="D41" s="48">
+        <v>43344</v>
+      </c>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="51">
+        <v>2</v>
+      </c>
+      <c r="D42" s="48">
+        <v>43344</v>
+      </c>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="17"/>
+    <row r="43" spans="1:5">
+      <c r="A43" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="51">
+        <v>3</v>
+      </c>
+      <c r="D43" s="48">
+        <v>43344</v>
+      </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="17"/>
+    <row r="44" spans="1:5">
+      <c r="A44" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="52">
+        <v>3</v>
+      </c>
+      <c r="D44" s="48">
+        <v>43344</v>
+      </c>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="17"/>
+    <row r="45" spans="1:5">
+      <c r="A45" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="51">
+        <v>2</v>
+      </c>
+      <c r="D45" s="48">
+        <v>43344</v>
+      </c>
       <c r="E45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="17"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="51">
+        <v>2</v>
+      </c>
+      <c r="D46" s="48">
+        <v>43344</v>
+      </c>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
+    <row r="47" spans="1:5">
+      <c r="A47" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="51">
+        <v>3</v>
+      </c>
+      <c r="D47" s="48">
+        <v>43344</v>
+      </c>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
+    <row r="48" spans="1:5">
+      <c r="A48" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="52">
+        <v>2</v>
+      </c>
+      <c r="D48" s="48">
+        <v>43344</v>
+      </c>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
+    <row r="49" spans="1:5">
+      <c r="A49" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="52">
+        <v>2</v>
+      </c>
+      <c r="D49" s="48">
+        <v>43344</v>
+      </c>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
+    <row r="50" spans="1:5">
+      <c r="A50" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="51">
+        <v>3</v>
+      </c>
+      <c r="D50" s="48">
+        <v>43344</v>
+      </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
+    <row r="51" spans="1:5">
+      <c r="A51" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="51">
+        <v>3</v>
+      </c>
+      <c r="D51" s="48">
+        <v>43344</v>
+      </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="17"/>
+    <row r="52" spans="1:5">
+      <c r="A52" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="51">
+        <v>2</v>
+      </c>
+      <c r="D52" s="48">
+        <v>43344</v>
+      </c>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
+    <row r="53" spans="1:5">
+      <c r="A53" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="52">
+        <v>2</v>
+      </c>
+      <c r="D53" s="48">
+        <v>43344</v>
+      </c>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="17"/>
+    <row r="54" spans="1:5">
+      <c r="A54" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="52">
+        <v>3</v>
+      </c>
+      <c r="D54" s="48">
+        <v>43344</v>
+      </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
+    <row r="55" spans="1:5">
+      <c r="A55" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="52">
+        <v>3</v>
+      </c>
+      <c r="D55" s="48">
+        <v>43344</v>
+      </c>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="17"/>
+    <row r="56" spans="1:5">
+      <c r="A56" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="52">
+        <v>2</v>
+      </c>
+      <c r="D56" s="48">
+        <v>43344</v>
+      </c>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
+    <row r="57" spans="1:5">
+      <c r="A57" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="52">
+        <v>2</v>
+      </c>
+      <c r="D57" s="48">
+        <v>43344</v>
+      </c>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="17"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="52">
+        <v>2</v>
+      </c>
+      <c r="D58" s="48">
+        <v>43344</v>
+      </c>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
+    <row r="59" spans="1:5">
+      <c r="A59" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="52">
+        <v>2</v>
+      </c>
+      <c r="D59" s="48">
+        <v>43344</v>
+      </c>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
+    <row r="60" spans="1:5">
+      <c r="A60" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="52">
+        <v>3</v>
+      </c>
+      <c r="D60" s="48">
+        <v>43344</v>
+      </c>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
+    <row r="61" spans="1:5">
+      <c r="A61" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="52">
+        <v>3</v>
+      </c>
+      <c r="D61" s="48">
+        <v>43344</v>
+      </c>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
       <c r="D64" s="17"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="17"/>
       <c r="E66" s="12"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="16"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
       <c r="D68" s="16"/>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="16"/>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
       <c r="E70" s="10"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
       <c r="D71" s="17"/>
       <c r="E71" s="12"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
       <c r="D72" s="16"/>
       <c r="E72" s="10"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:5">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="17"/>
       <c r="E73" s="12"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:5">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
       <c r="E74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:5">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="17"/>
       <c r="E75" s="12"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="16"/>
       <c r="E76" s="10"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:5">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
       <c r="D77" s="17"/>
       <c r="E77" s="12"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
       <c r="D78" s="16"/>
       <c r="E78" s="10"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:5">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
       <c r="D79" s="17"/>
       <c r="E79" s="12"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:5">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
       <c r="D80" s="17"/>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:5">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="19"/>
       <c r="D81" s="16"/>
       <c r="E81" s="10"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:5">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="19"/>
       <c r="D82" s="16"/>
       <c r="E82" s="10"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:5">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="16"/>
       <c r="E83" s="10"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:5">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
       <c r="D84" s="17"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:5">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:5">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
       <c r="D86" s="17"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:5">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
       <c r="D87" s="17"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:5">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
       <c r="D88" s="17"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:5">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
       <c r="D89" s="16"/>
       <c r="E89" s="10"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:5">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
       <c r="D90" s="16"/>
       <c r="E90" s="10"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:5">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
       <c r="D91" s="16"/>
       <c r="E91" s="10"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:5">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
       <c r="D92" s="17"/>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:5">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="16"/>
       <c r="E93" s="10"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:5">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="17"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:5">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
       <c r="D95" s="17"/>
       <c r="E95" s="12"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:5">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="12"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:5">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
       <c r="D97" s="17"/>
       <c r="E97" s="12"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:5">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="12"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:5">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="19"/>
       <c r="D99" s="16"/>
       <c r="E99" s="10"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:5">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="19"/>
       <c r="D100" s="16"/>
       <c r="E100" s="10"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:5">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="15"/>
       <c r="D101" s="16"/>
       <c r="E101" s="10"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:5">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="15"/>
       <c r="D102" s="16"/>
       <c r="E102" s="10"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:5">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="15"/>
       <c r="D103" s="17"/>
       <c r="E103" s="12"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:5">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="15"/>
       <c r="D104" s="16"/>
       <c r="E104" s="10"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:5">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="15"/>
       <c r="D105" s="17"/>
       <c r="E105" s="12"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:5">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="15"/>
       <c r="D106" s="17"/>
       <c r="E106" s="12"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:5">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
       <c r="D107" s="17"/>
       <c r="E107" s="12"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:5">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
       <c r="D108" s="16"/>
       <c r="E108" s="10"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:5">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="15"/>
       <c r="D109" s="16"/>
       <c r="E109" s="10"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:5">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="15"/>
       <c r="D110" s="16"/>
       <c r="E110" s="10"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:5">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="15"/>
       <c r="D111" s="17"/>
       <c r="E111" s="12"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:5">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="15"/>
       <c r="D112" s="16"/>
       <c r="E112" s="10"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:5">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="15"/>
       <c r="D113" s="16"/>
       <c r="E113" s="10"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:5">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="15"/>
       <c r="D114" s="17"/>
       <c r="E114" s="12"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:5">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
       <c r="D115" s="17"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:5">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
       <c r="D116" s="17"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:5">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
       <c r="D117" s="17"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:5">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
       <c r="D118" s="17"/>
       <c r="E118" s="12"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:5">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
       <c r="D119" s="16"/>
       <c r="E119" s="10"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:5">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="15"/>
       <c r="D120" s="17"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:5">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="15"/>
       <c r="D121" s="17"/>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:5">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="15"/>
       <c r="D122" s="17"/>
       <c r="E122" s="12"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:5">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="15"/>
       <c r="D123" s="17"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:5">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="15"/>
       <c r="D124" s="17"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:5">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="15"/>
       <c r="D125" s="17"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:5">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="15"/>
       <c r="D126" s="17"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:5">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="15"/>
       <c r="D127" s="17"/>
       <c r="E127" s="12"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:5">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="15"/>
       <c r="D128" s="16"/>
       <c r="E128" s="10"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:5">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="15"/>
       <c r="D129" s="16"/>
       <c r="E129" s="10"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:5">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="15"/>
       <c r="D130" s="16"/>
       <c r="E130" s="10"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:5">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="15"/>
       <c r="D131" s="16"/>
       <c r="E131" s="10"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:5">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="15"/>
       <c r="D132" s="17"/>
       <c r="E132" s="12"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:5">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
       <c r="D133" s="17"/>
       <c r="E133" s="12"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:5">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="15"/>
       <c r="D134" s="17"/>
       <c r="E134" s="12"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:5">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="15"/>
       <c r="D135" s="17"/>
       <c r="E135" s="12"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:5">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="15"/>
       <c r="D136" s="17"/>
       <c r="E136" s="12"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:5">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="18"/>
       <c r="D137" s="17"/>
       <c r="E137" s="12"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:5">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="15"/>
       <c r="D138" s="16"/>
       <c r="E138" s="10"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:5">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="15"/>
       <c r="D139" s="17"/>
       <c r="E139" s="12"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:5">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="15"/>
       <c r="D140" s="17"/>
       <c r="E140" s="12"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:5">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="15"/>
       <c r="D141" s="16"/>
       <c r="E141" s="10"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:5">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="15"/>
       <c r="D142" s="16"/>
       <c r="E142" s="10"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:5">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="15"/>
       <c r="D143" s="17"/>
       <c r="E143" s="12"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:5">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="15"/>
       <c r="D144" s="17"/>
       <c r="E144" s="12"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:5">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="15"/>
       <c r="D145" s="17"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:5">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="15"/>
       <c r="D146" s="17"/>
       <c r="E146" s="12"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:5">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
       <c r="D147" s="17"/>
       <c r="E147" s="12"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:5">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="15"/>
       <c r="D148" s="17"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:5">
       <c r="A149" s="20"/>
       <c r="B149" s="20"/>
       <c r="C149" s="21"/>
       <c r="D149" s="17"/>
       <c r="E149" s="12"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:5">
       <c r="A150" s="20"/>
       <c r="B150" s="20"/>
       <c r="C150" s="21"/>
       <c r="D150" s="16"/>
       <c r="E150" s="10"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:5">
       <c r="A151" s="20"/>
       <c r="B151" s="20"/>
       <c r="C151" s="21"/>
       <c r="D151" s="16"/>
       <c r="E151" s="10"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:5">
       <c r="A152" s="20"/>
       <c r="B152" s="20"/>
       <c r="C152" s="21"/>
       <c r="D152" s="16"/>
       <c r="E152" s="10"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:5">
       <c r="A153" s="20"/>
       <c r="B153" s="20"/>
       <c r="C153" s="21"/>
       <c r="D153" s="16"/>
       <c r="E153" s="10"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:5">
       <c r="A154" s="20"/>
       <c r="B154" s="20"/>
       <c r="C154" s="21"/>
       <c r="D154" s="16"/>
       <c r="E154" s="10"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:5">
       <c r="A155" s="20"/>
       <c r="B155" s="20"/>
       <c r="C155" s="21"/>
       <c r="D155" s="16"/>
       <c r="E155" s="10"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:5">
       <c r="A156" s="20"/>
       <c r="B156" s="20"/>
       <c r="C156" s="21"/>
       <c r="D156" s="16"/>
       <c r="E156" s="10"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:5">
       <c r="A157" s="20"/>
       <c r="B157" s="20"/>
       <c r="C157" s="21"/>
       <c r="D157" s="16"/>
       <c r="E157" s="10"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:5">
       <c r="A158" s="20"/>
       <c r="B158" s="20"/>
       <c r="C158" s="21"/>
       <c r="D158" s="16"/>
       <c r="E158" s="10"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:5">
       <c r="A159" s="20"/>
       <c r="B159" s="20"/>
       <c r="C159" s="21"/>
       <c r="D159" s="16"/>
       <c r="E159" s="10"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:5">
       <c r="A160" s="20"/>
       <c r="B160" s="20"/>
       <c r="C160" s="21"/>
       <c r="D160" s="16"/>
       <c r="E160" s="10"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:5">
       <c r="A161" s="20"/>
       <c r="B161" s="20"/>
       <c r="C161" s="21"/>
       <c r="D161" s="16"/>
       <c r="E161" s="10"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:5">
       <c r="A162" s="20"/>
       <c r="B162" s="20"/>
       <c r="C162" s="22"/>
       <c r="D162" s="17"/>
       <c r="E162" s="12"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:5">
       <c r="A163" s="20"/>
       <c r="B163" s="20"/>
       <c r="C163" s="23"/>
       <c r="D163" s="16"/>
       <c r="E163" s="10"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:5">
       <c r="A164" s="20"/>
       <c r="B164" s="20"/>
       <c r="C164" s="23"/>
       <c r="D164" s="17"/>
       <c r="E164" s="12"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:5">
       <c r="A165" s="20"/>
       <c r="B165" s="20"/>
       <c r="C165" s="23"/>
       <c r="D165" s="17"/>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:5">
       <c r="A166" s="20"/>
       <c r="B166" s="20"/>
       <c r="C166" s="23"/>
       <c r="D166" s="17"/>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:5">
       <c r="A167" s="20"/>
       <c r="B167" s="20"/>
       <c r="C167" s="23"/>
       <c r="D167" s="17"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:5">
       <c r="A168" s="20"/>
       <c r="B168" s="20"/>
       <c r="C168" s="23"/>
       <c r="D168" s="16"/>
       <c r="E168" s="10"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:5">
       <c r="A169" s="20"/>
       <c r="B169" s="20"/>
       <c r="C169" s="23"/>
       <c r="D169" s="17"/>
       <c r="E169" s="12"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:5">
       <c r="A170" s="20"/>
       <c r="B170" s="20"/>
       <c r="C170" s="23"/>
       <c r="D170" s="17"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:5">
       <c r="A171" s="20"/>
       <c r="B171" s="20"/>
       <c r="C171" s="23"/>
       <c r="D171" s="17"/>
       <c r="E171" s="12"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:5">
       <c r="A172" s="20"/>
       <c r="B172" s="20"/>
       <c r="C172" s="23"/>
       <c r="D172" s="16"/>
       <c r="E172" s="10"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:5">
       <c r="A173" s="20"/>
       <c r="B173" s="20"/>
       <c r="C173" s="24"/>
       <c r="D173" s="16"/>
       <c r="E173" s="10"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:5">
       <c r="A174" s="20"/>
       <c r="B174" s="20"/>
       <c r="C174" s="23"/>
       <c r="D174" s="17"/>
       <c r="E174" s="12"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:5">
       <c r="A175" s="20"/>
       <c r="B175" s="20"/>
       <c r="C175" s="23"/>
       <c r="D175" s="16"/>
       <c r="E175" s="10"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:5">
       <c r="A176" s="20"/>
       <c r="B176" s="20"/>
       <c r="C176" s="23"/>
       <c r="D176" s="17"/>
       <c r="E176" s="12"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:5">
       <c r="A177" s="20"/>
       <c r="B177" s="20"/>
       <c r="C177" s="24"/>
       <c r="D177" s="16"/>
       <c r="E177" s="10"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:5">
       <c r="A178" s="20"/>
       <c r="B178" s="20"/>
       <c r="C178" s="23"/>
       <c r="D178" s="17"/>
       <c r="E178" s="12"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:5">
       <c r="A179" s="20"/>
       <c r="B179" s="20"/>
       <c r="C179" s="23"/>
       <c r="D179" s="16"/>
       <c r="E179" s="10"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:5">
       <c r="A180" s="20"/>
       <c r="B180" s="20"/>
       <c r="C180" s="23"/>
       <c r="D180" s="16"/>
       <c r="E180" s="10"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:5">
       <c r="A181" s="20"/>
       <c r="B181" s="20"/>
       <c r="C181" s="23"/>
       <c r="D181" s="16"/>
       <c r="E181" s="10"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:5">
       <c r="A182" s="20"/>
       <c r="B182" s="20"/>
       <c r="C182" s="23"/>
       <c r="D182" s="17"/>
       <c r="E182" s="12"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:5">
       <c r="A183" s="20"/>
       <c r="B183" s="20"/>
       <c r="C183" s="22"/>
       <c r="D183" s="16"/>
       <c r="E183" s="10"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:5">
       <c r="A184" s="20"/>
       <c r="B184" s="20"/>
       <c r="C184" s="23"/>
       <c r="D184" s="16"/>
       <c r="E184" s="10"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:5">
       <c r="A185" s="20"/>
       <c r="B185" s="20"/>
       <c r="C185" s="23"/>
       <c r="D185" s="17"/>
       <c r="E185" s="12"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:5">
       <c r="A186" s="20"/>
       <c r="B186" s="20"/>
       <c r="C186" s="23"/>
       <c r="D186" s="17"/>
       <c r="E186" s="12"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:5">
       <c r="A187" s="20"/>
       <c r="B187" s="20"/>
       <c r="C187" s="23"/>
       <c r="D187" s="17"/>
       <c r="E187" s="12"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:5">
       <c r="A188" s="20"/>
       <c r="B188" s="20"/>
       <c r="C188" s="23"/>
       <c r="D188" s="17"/>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:5">
       <c r="A189" s="20"/>
       <c r="B189" s="20"/>
       <c r="C189" s="23"/>
       <c r="D189" s="16"/>
       <c r="E189" s="10"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:5">
       <c r="A190" s="20"/>
       <c r="B190" s="20"/>
       <c r="C190" s="23"/>
       <c r="D190" s="17"/>
       <c r="E190" s="12"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:5">
       <c r="A191" s="20"/>
       <c r="B191" s="20"/>
       <c r="C191" s="23"/>
       <c r="D191" s="17"/>
       <c r="E191" s="12"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:5">
       <c r="A192" s="20"/>
       <c r="B192" s="20"/>
       <c r="C192" s="23"/>
       <c r="D192" s="17"/>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:5">
       <c r="A193" s="20"/>
       <c r="B193" s="20"/>
       <c r="C193" s="23"/>
       <c r="D193" s="16"/>
       <c r="E193" s="10"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:5">
       <c r="A194" s="20"/>
       <c r="B194" s="20"/>
       <c r="C194" s="24"/>
       <c r="D194" s="16"/>
       <c r="E194" s="10"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:5">
       <c r="A195" s="20"/>
       <c r="B195" s="20"/>
       <c r="C195" s="23"/>
       <c r="D195" s="17"/>
       <c r="E195" s="12"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:5">
       <c r="A196" s="20"/>
       <c r="B196" s="20"/>
       <c r="C196" s="23"/>
       <c r="D196" s="16"/>
       <c r="E196" s="10"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:5">
       <c r="A197" s="20"/>
       <c r="B197" s="20"/>
       <c r="C197" s="23"/>
       <c r="D197" s="17"/>
       <c r="E197" s="12"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:5">
       <c r="A198" s="20"/>
       <c r="B198" s="20"/>
       <c r="C198" s="24"/>
       <c r="D198" s="16"/>
       <c r="E198" s="10"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:5">
       <c r="A199" s="20"/>
       <c r="B199" s="20"/>
       <c r="C199" s="23"/>
       <c r="D199" s="17"/>
       <c r="E199" s="12"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:5">
       <c r="A200" s="20"/>
       <c r="B200" s="20"/>
       <c r="C200" s="23"/>
       <c r="D200" s="16"/>
       <c r="E200" s="10"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:5">
       <c r="A201" s="20"/>
       <c r="B201" s="20"/>
       <c r="C201" s="23"/>
       <c r="D201" s="16"/>
       <c r="E201" s="10"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:5">
       <c r="A202" s="20"/>
       <c r="B202" s="20"/>
       <c r="C202" s="23"/>
       <c r="D202" s="16"/>
       <c r="E202" s="10"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:5">
       <c r="A203" s="20"/>
       <c r="B203" s="20"/>
       <c r="C203" s="23"/>
       <c r="D203" s="17"/>
       <c r="E203" s="12"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:5">
       <c r="A204" s="20"/>
       <c r="B204" s="20"/>
       <c r="C204" s="22"/>
       <c r="D204" s="16"/>
       <c r="E204" s="10"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:5">
       <c r="A205" s="20"/>
       <c r="B205" s="20"/>
       <c r="C205" s="23"/>
       <c r="D205" s="16"/>
       <c r="E205" s="10"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:5">
       <c r="A206" s="20"/>
       <c r="B206" s="20"/>
       <c r="C206" s="23"/>
       <c r="D206" s="17"/>
       <c r="E206" s="12"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:5">
       <c r="A207" s="20"/>
       <c r="B207" s="20"/>
       <c r="C207" s="23"/>
       <c r="D207" s="17"/>
       <c r="E207" s="12"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:5">
       <c r="A208" s="20"/>
       <c r="B208" s="20"/>
       <c r="C208" s="23"/>
       <c r="D208" s="17"/>
       <c r="E208" s="12"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:5">
       <c r="A209" s="20"/>
       <c r="B209" s="20"/>
       <c r="C209" s="23"/>
       <c r="D209" s="17"/>
       <c r="E209" s="12"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:5">
       <c r="A210" s="20"/>
       <c r="B210" s="20"/>
       <c r="C210" s="23"/>
       <c r="D210" s="16"/>
       <c r="E210" s="10"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:5">
       <c r="A211" s="20"/>
       <c r="B211" s="20"/>
       <c r="C211" s="23"/>
       <c r="D211" s="17"/>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:5">
       <c r="A212" s="20"/>
       <c r="B212" s="20"/>
       <c r="C212" s="23"/>
       <c r="D212" s="17"/>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:5">
       <c r="A213" s="20"/>
       <c r="B213" s="20"/>
       <c r="C213" s="23"/>
       <c r="D213" s="17"/>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:5">
       <c r="A214" s="20"/>
       <c r="B214" s="20"/>
       <c r="C214" s="23"/>
       <c r="D214" s="16"/>
       <c r="E214" s="10"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:5">
       <c r="A215" s="20"/>
       <c r="B215" s="20"/>
       <c r="C215" s="24"/>
       <c r="D215" s="16"/>
       <c r="E215" s="10"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:5">
       <c r="A216" s="20"/>
       <c r="B216" s="20"/>
       <c r="C216" s="23"/>
       <c r="D216" s="17"/>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:5">
       <c r="A217" s="20"/>
       <c r="B217" s="20"/>
       <c r="C217" s="23"/>
       <c r="D217" s="16"/>
       <c r="E217" s="10"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:5">
       <c r="A218" s="20"/>
       <c r="B218" s="20"/>
       <c r="C218" s="23"/>
       <c r="D218" s="17"/>
       <c r="E218" s="12"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:5">
       <c r="A219" s="20"/>
       <c r="B219" s="20"/>
       <c r="C219" s="24"/>
       <c r="D219" s="16"/>
       <c r="E219" s="10"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:5">
       <c r="A220" s="20"/>
       <c r="B220" s="20"/>
       <c r="C220" s="23"/>
       <c r="D220" s="17"/>
       <c r="E220" s="12"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:5">
       <c r="A221" s="20"/>
       <c r="B221" s="20"/>
       <c r="C221" s="23"/>
       <c r="D221" s="16"/>
       <c r="E221" s="10"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:5">
       <c r="A222" s="20"/>
       <c r="B222" s="20"/>
       <c r="C222" s="23"/>
       <c r="D222" s="16"/>
       <c r="E222" s="10"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:5">
       <c r="A223" s="20"/>
       <c r="B223" s="20"/>
       <c r="C223" s="23"/>
       <c r="D223" s="16"/>
       <c r="E223" s="10"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:5">
       <c r="A224" s="20"/>
       <c r="B224" s="20"/>
       <c r="C224" s="23"/>
       <c r="D224" s="17"/>
       <c r="E224" s="12"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:5">
       <c r="A225" s="20"/>
       <c r="B225" s="20"/>
       <c r="C225" s="22"/>
       <c r="D225" s="16"/>
       <c r="E225" s="10"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:5">
       <c r="A226" s="20"/>
       <c r="B226" s="20"/>
       <c r="C226" s="23"/>
       <c r="D226" s="16"/>
       <c r="E226" s="10"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:5">
       <c r="A227" s="20"/>
       <c r="B227" s="20"/>
       <c r="C227" s="23"/>
       <c r="D227" s="17"/>
       <c r="E227" s="12"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:5">
       <c r="A228" s="20"/>
       <c r="B228" s="20"/>
       <c r="C228" s="23"/>
       <c r="D228" s="17"/>
       <c r="E228" s="12"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:5">
       <c r="A229" s="20"/>
       <c r="B229" s="20"/>
       <c r="C229" s="23"/>
       <c r="D229" s="17"/>
       <c r="E229" s="12"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:5">
       <c r="A230" s="20"/>
       <c r="B230" s="20"/>
       <c r="C230" s="23"/>
       <c r="D230" s="17"/>
       <c r="E230" s="12"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:5">
       <c r="A231" s="20"/>
       <c r="B231" s="20"/>
       <c r="C231" s="23"/>
       <c r="D231" s="16"/>
       <c r="E231" s="10"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:5">
       <c r="A232" s="20"/>
       <c r="B232" s="20"/>
       <c r="C232" s="23"/>
       <c r="D232" s="17"/>
       <c r="E232" s="12"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:5">
       <c r="A233" s="20"/>
       <c r="B233" s="20"/>
       <c r="C233" s="23"/>
       <c r="D233" s="17"/>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:5">
       <c r="A234" s="20"/>
       <c r="B234" s="20"/>
       <c r="C234" s="23"/>
       <c r="D234" s="17"/>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:5">
       <c r="A235" s="20"/>
       <c r="B235" s="20"/>
       <c r="C235" s="23"/>
       <c r="D235" s="16"/>
       <c r="E235" s="10"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:5">
       <c r="A236" s="20"/>
       <c r="B236" s="20"/>
       <c r="C236" s="24"/>
       <c r="D236" s="16"/>
       <c r="E236" s="10"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:5">
       <c r="A237" s="20"/>
       <c r="B237" s="20"/>
       <c r="C237" s="23"/>
       <c r="D237" s="17"/>
       <c r="E237" s="12"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:5">
       <c r="A238" s="20"/>
       <c r="B238" s="20"/>
       <c r="C238" s="23"/>
       <c r="D238" s="16"/>
       <c r="E238" s="10"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:5">
       <c r="A239" s="20"/>
       <c r="B239" s="20"/>
       <c r="C239" s="23"/>
       <c r="D239" s="17"/>
       <c r="E239" s="12"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:5">
       <c r="A240" s="20"/>
       <c r="B240" s="20"/>
       <c r="C240" s="24"/>
       <c r="D240" s="16"/>
       <c r="E240" s="10"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:5">
       <c r="A241" s="20"/>
       <c r="B241" s="20"/>
       <c r="C241" s="23"/>
       <c r="D241" s="17"/>
       <c r="E241" s="12"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:5">
       <c r="A242" s="20"/>
       <c r="B242" s="20"/>
       <c r="C242" s="23"/>
       <c r="D242" s="16"/>
       <c r="E242" s="10"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:5">
       <c r="A243" s="20"/>
       <c r="B243" s="20"/>
       <c r="C243" s="23"/>
       <c r="D243" s="16"/>
       <c r="E243" s="10"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:5">
       <c r="A244" s="20"/>
       <c r="B244" s="20"/>
       <c r="C244" s="23"/>
       <c r="D244" s="16"/>
       <c r="E244" s="10"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:5">
       <c r="A245" s="20"/>
       <c r="B245" s="20"/>
       <c r="C245" s="23"/>
       <c r="D245" s="17"/>
       <c r="E245" s="12"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:5">
       <c r="A246" s="20"/>
       <c r="B246" s="20"/>
       <c r="C246" s="22"/>
       <c r="D246" s="16"/>
       <c r="E246" s="10"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:5">
       <c r="A247" s="20"/>
       <c r="B247" s="20"/>
       <c r="C247" s="22"/>
       <c r="D247" s="16"/>
       <c r="E247" s="10"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:5">
       <c r="A248" s="20"/>
       <c r="B248" s="20"/>
       <c r="C248" s="22"/>
       <c r="D248" s="16"/>
       <c r="E248" s="10"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:5">
       <c r="A249" s="20"/>
       <c r="B249" s="20"/>
       <c r="C249" s="22"/>
       <c r="D249" s="16"/>
       <c r="E249" s="10"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:5">
       <c r="A250" s="20"/>
       <c r="B250" s="20"/>
       <c r="C250" s="23"/>
       <c r="D250" s="16"/>
       <c r="E250" s="10"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:5">
       <c r="A251" s="20"/>
       <c r="B251" s="20"/>
       <c r="C251" s="23"/>
       <c r="D251" s="17"/>
       <c r="E251" s="12"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:5">
       <c r="A252" s="20"/>
       <c r="B252" s="20"/>
       <c r="C252" s="23"/>
       <c r="D252" s="16"/>
       <c r="E252" s="10"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:5">
       <c r="A253" s="20"/>
       <c r="B253" s="20"/>
       <c r="C253" s="23"/>
       <c r="D253" s="16"/>
       <c r="E253" s="10"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:5">
       <c r="A254" s="20"/>
       <c r="B254" s="20"/>
       <c r="C254" s="23"/>
       <c r="D254" s="16"/>
       <c r="E254" s="10"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:5">
       <c r="A255" s="20"/>
       <c r="B255" s="20"/>
       <c r="C255" s="23"/>
       <c r="D255" s="16"/>
       <c r="E255" s="10"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:5">
       <c r="A256" s="20"/>
       <c r="B256" s="20"/>
       <c r="C256" s="23"/>
       <c r="D256" s="16"/>
       <c r="E256" s="10"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:5">
       <c r="A257" s="20"/>
       <c r="B257" s="20"/>
       <c r="C257" s="23"/>
       <c r="D257" s="16"/>
       <c r="E257" s="10"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:5">
       <c r="A258" s="20"/>
       <c r="B258" s="20"/>
       <c r="C258" s="23"/>
       <c r="D258" s="16"/>
       <c r="E258" s="10"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:5">
       <c r="A259" s="20"/>
       <c r="B259" s="20"/>
       <c r="C259" s="23"/>
       <c r="D259" s="16"/>
       <c r="E259" s="10"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:5">
       <c r="A260" s="20"/>
       <c r="B260" s="20"/>
       <c r="C260" s="23"/>
       <c r="D260" s="16"/>
       <c r="E260" s="10"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:5">
       <c r="A261" s="20"/>
       <c r="B261" s="20"/>
       <c r="C261" s="23"/>
       <c r="D261" s="16"/>
       <c r="E261" s="10"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:5">
       <c r="A262" s="20"/>
       <c r="B262" s="20"/>
       <c r="C262" s="23"/>
       <c r="D262" s="16"/>
       <c r="E262" s="10"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:5">
       <c r="A263" s="20"/>
       <c r="B263" s="20"/>
       <c r="C263" s="23"/>
       <c r="D263" s="17"/>
       <c r="E263" s="12"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:5">
       <c r="A264" s="20"/>
       <c r="B264" s="20"/>
       <c r="C264" s="23"/>
       <c r="D264" s="16"/>
       <c r="E264" s="10"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:5">
       <c r="A265" s="20"/>
       <c r="B265" s="20"/>
       <c r="C265" s="23"/>
       <c r="D265" s="17"/>
       <c r="E265" s="12"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:5">
       <c r="A266" s="20"/>
       <c r="B266" s="20"/>
       <c r="C266" s="23"/>
       <c r="D266" s="16"/>
       <c r="E266" s="10"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:5">
       <c r="A267" s="20"/>
       <c r="B267" s="20"/>
       <c r="C267" s="23"/>
       <c r="D267" s="16"/>
       <c r="E267" s="10"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:5">
       <c r="A268" s="20"/>
       <c r="B268" s="20"/>
       <c r="C268" s="23"/>
       <c r="D268" s="16"/>
       <c r="E268" s="10"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:5">
       <c r="A269" s="20"/>
       <c r="B269" s="20"/>
       <c r="C269" s="23"/>
       <c r="D269" s="16"/>
       <c r="E269" s="10"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:5">
       <c r="A270" s="20"/>
       <c r="B270" s="20"/>
       <c r="C270" s="24"/>
       <c r="D270" s="17"/>
       <c r="E270" s="12"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:5">
       <c r="A271" s="20"/>
       <c r="B271" s="20"/>
       <c r="C271" s="23"/>
       <c r="D271" s="16"/>
       <c r="E271" s="10"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:5">
       <c r="A272" s="20"/>
       <c r="B272" s="20"/>
       <c r="C272" s="23"/>
       <c r="D272" s="16"/>
       <c r="E272" s="10"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:5">
       <c r="A273" s="20"/>
       <c r="B273" s="20"/>
       <c r="C273" s="23"/>
       <c r="D273" s="16"/>
       <c r="E273" s="10"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:5">
       <c r="A274" s="20"/>
       <c r="B274" s="20"/>
       <c r="C274" s="23"/>
       <c r="D274" s="17"/>
       <c r="E274" s="12"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:5">
       <c r="A275" s="20"/>
       <c r="B275" s="20"/>
       <c r="C275" s="24"/>
       <c r="D275" s="17"/>
       <c r="E275" s="12"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:5">
       <c r="A276" s="20"/>
       <c r="B276" s="20"/>
       <c r="C276" s="23"/>
       <c r="D276" s="16"/>
       <c r="E276" s="10"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:5">
       <c r="A277" s="20"/>
       <c r="B277" s="20"/>
       <c r="C277" s="23"/>
       <c r="D277" s="16"/>
       <c r="E277" s="10"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:5">
       <c r="A278" s="20"/>
       <c r="B278" s="20"/>
       <c r="C278" s="23"/>
       <c r="D278" s="16"/>
       <c r="E278" s="10"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:5">
       <c r="A279" s="20"/>
       <c r="B279" s="20"/>
       <c r="C279" s="23"/>
       <c r="D279" s="17"/>
       <c r="E279" s="12"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:5">
       <c r="A280" s="20"/>
       <c r="B280" s="20"/>
       <c r="C280" s="23"/>
       <c r="D280" s="16"/>
       <c r="E280" s="10"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:5">
       <c r="A281" s="20"/>
       <c r="B281" s="20"/>
       <c r="C281" s="23"/>
       <c r="D281" s="17"/>
       <c r="E281" s="12"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:5">
       <c r="A282" s="20"/>
       <c r="B282" s="20"/>
       <c r="C282" s="22"/>
       <c r="D282" s="16"/>
       <c r="E282" s="10"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:5">
       <c r="A283" s="20"/>
       <c r="B283" s="20"/>
       <c r="C283" s="22"/>
       <c r="D283" s="16"/>
       <c r="E283" s="10"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:5">
       <c r="A284" s="20"/>
       <c r="B284" s="20"/>
       <c r="C284" s="22"/>
       <c r="D284" s="16"/>
       <c r="E284" s="10"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:5">
       <c r="A285" s="20"/>
       <c r="B285" s="20"/>
       <c r="C285" s="22"/>
       <c r="D285" s="16"/>
       <c r="E285" s="10"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:5">
       <c r="A286" s="20"/>
       <c r="B286" s="20"/>
       <c r="C286" s="23"/>
       <c r="D286" s="16"/>
       <c r="E286" s="10"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:5">
       <c r="A287" s="20"/>
       <c r="B287" s="20"/>
       <c r="C287" s="23"/>
       <c r="D287" s="17"/>
       <c r="E287" s="12"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:5">
       <c r="A288" s="20"/>
       <c r="B288" s="20"/>
       <c r="C288" s="23"/>
       <c r="D288" s="16"/>
       <c r="E288" s="10"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:5">
       <c r="A289" s="20"/>
       <c r="B289" s="20"/>
       <c r="C289" s="23"/>
       <c r="D289" s="16"/>
       <c r="E289" s="10"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:5">
       <c r="A290" s="20"/>
       <c r="B290" s="20"/>
       <c r="C290" s="23"/>
       <c r="D290" s="16"/>
       <c r="E290" s="10"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:5">
       <c r="A291" s="20"/>
       <c r="B291" s="20"/>
       <c r="C291" s="23"/>
       <c r="D291" s="16"/>
       <c r="E291" s="10"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:5">
       <c r="A292" s="20"/>
       <c r="B292" s="20"/>
       <c r="C292" s="23"/>
       <c r="D292" s="16"/>
       <c r="E292" s="10"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:5">
       <c r="A293" s="20"/>
       <c r="B293" s="20"/>
       <c r="C293" s="23"/>
       <c r="D293" s="16"/>
       <c r="E293" s="10"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:5">
       <c r="A294" s="20"/>
       <c r="B294" s="20"/>
       <c r="C294" s="23"/>
       <c r="D294" s="16"/>
       <c r="E294" s="10"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:5">
       <c r="A295" s="20"/>
       <c r="B295" s="20"/>
       <c r="C295" s="23"/>
       <c r="D295" s="16"/>
       <c r="E295" s="10"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:5">
       <c r="A296" s="20"/>
       <c r="B296" s="20"/>
       <c r="C296" s="23"/>
       <c r="D296" s="16"/>
       <c r="E296" s="10"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:5">
       <c r="A297" s="20"/>
       <c r="B297" s="20"/>
       <c r="C297" s="23"/>
       <c r="D297" s="16"/>
       <c r="E297" s="10"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:5">
       <c r="A298" s="20"/>
       <c r="B298" s="20"/>
       <c r="C298" s="23"/>
       <c r="D298" s="16"/>
       <c r="E298" s="10"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:5">
       <c r="A299" s="20"/>
       <c r="B299" s="20"/>
       <c r="C299" s="23"/>
       <c r="D299" s="17"/>
       <c r="E299" s="12"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:5">
       <c r="A300" s="20"/>
       <c r="B300" s="20"/>
       <c r="C300" s="23"/>
       <c r="D300" s="16"/>
       <c r="E300" s="10"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:5">
       <c r="A301" s="20"/>
       <c r="B301" s="20"/>
       <c r="C301" s="23"/>
       <c r="D301" s="17"/>
       <c r="E301" s="12"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:5">
       <c r="A302" s="20"/>
       <c r="B302" s="20"/>
       <c r="C302" s="23"/>
       <c r="D302" s="16"/>
       <c r="E302" s="10"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:5">
       <c r="A303" s="20"/>
       <c r="B303" s="20"/>
       <c r="C303" s="23"/>
       <c r="D303" s="16"/>
       <c r="E303" s="10"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:5">
       <c r="A304" s="20"/>
       <c r="B304" s="20"/>
       <c r="C304" s="23"/>
       <c r="D304" s="16"/>
       <c r="E304" s="10"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:5">
       <c r="A305" s="20"/>
       <c r="B305" s="20"/>
       <c r="C305" s="23"/>
       <c r="D305" s="16"/>
       <c r="E305" s="10"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:5">
       <c r="A306" s="20"/>
       <c r="B306" s="20"/>
       <c r="C306" s="24"/>
       <c r="D306" s="17"/>
       <c r="E306" s="12"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:5">
       <c r="A307" s="20"/>
       <c r="B307" s="20"/>
       <c r="C307" s="23"/>
       <c r="D307" s="16"/>
       <c r="E307" s="10"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:5">
       <c r="A308" s="20"/>
       <c r="B308" s="20"/>
       <c r="C308" s="23"/>
       <c r="D308" s="16"/>
       <c r="E308" s="10"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:5">
       <c r="A309" s="20"/>
       <c r="B309" s="20"/>
       <c r="C309" s="23"/>
       <c r="D309" s="16"/>
       <c r="E309" s="10"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:5">
       <c r="A310" s="20"/>
       <c r="B310" s="20"/>
       <c r="C310" s="23"/>
       <c r="D310" s="17"/>
       <c r="E310" s="12"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:5">
       <c r="A311" s="20"/>
       <c r="B311" s="20"/>
       <c r="C311" s="24"/>
       <c r="D311" s="17"/>
       <c r="E311" s="12"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:5">
       <c r="A312" s="20"/>
       <c r="B312" s="20"/>
       <c r="C312" s="23"/>
       <c r="D312" s="16"/>
       <c r="E312" s="10"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:5">
       <c r="A313" s="20"/>
       <c r="B313" s="20"/>
       <c r="C313" s="23"/>
       <c r="D313" s="16"/>
       <c r="E313" s="10"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:5">
       <c r="A314" s="20"/>
       <c r="B314" s="20"/>
       <c r="C314" s="23"/>
       <c r="D314" s="16"/>
       <c r="E314" s="10"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:5">
       <c r="A315" s="20"/>
       <c r="B315" s="20"/>
       <c r="C315" s="23"/>
       <c r="D315" s="17"/>
       <c r="E315" s="12"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:5">
       <c r="A316" s="20"/>
       <c r="B316" s="20"/>
       <c r="C316" s="23"/>
       <c r="D316" s="16"/>
       <c r="E316" s="10"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:5">
       <c r="A317" s="20"/>
       <c r="B317" s="20"/>
       <c r="C317" s="23"/>
       <c r="D317" s="17"/>
       <c r="E317" s="12"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:5">
       <c r="A318" s="20"/>
       <c r="B318" s="20"/>
       <c r="C318" s="22"/>
       <c r="D318" s="16"/>
       <c r="E318" s="10"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:5">
       <c r="A319" s="20"/>
       <c r="B319" s="20"/>
       <c r="C319" s="22"/>
       <c r="D319" s="16"/>
       <c r="E319" s="10"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:5">
       <c r="A320" s="20"/>
       <c r="B320" s="20"/>
       <c r="C320" s="23"/>
       <c r="D320" s="16"/>
       <c r="E320" s="10"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:5">
       <c r="A321" s="20"/>
       <c r="B321" s="20"/>
       <c r="C321" s="23"/>
       <c r="D321" s="16"/>
       <c r="E321" s="10"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:5">
       <c r="A322" s="20"/>
       <c r="B322" s="20"/>
       <c r="C322" s="23"/>
       <c r="D322" s="17"/>
       <c r="E322" s="12"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:5">
       <c r="A323" s="20"/>
       <c r="B323" s="20"/>
       <c r="C323" s="23"/>
       <c r="D323" s="16"/>
       <c r="E323" s="10"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:5">
       <c r="A324" s="20"/>
       <c r="B324" s="20"/>
       <c r="C324" s="23"/>
       <c r="D324" s="16"/>
       <c r="E324" s="10"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:5">
       <c r="A325" s="20"/>
       <c r="B325" s="20"/>
       <c r="C325" s="23"/>
       <c r="D325" s="17"/>
       <c r="E325" s="12"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:5">
       <c r="A326" s="20"/>
       <c r="B326" s="20"/>
       <c r="C326" s="23"/>
       <c r="D326" s="16"/>
       <c r="E326" s="10"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:5">
       <c r="A327" s="20"/>
       <c r="B327" s="20"/>
       <c r="C327" s="23"/>
       <c r="D327" s="17"/>
       <c r="E327" s="12"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:5">
       <c r="A328" s="20"/>
       <c r="B328" s="20"/>
       <c r="C328" s="23"/>
       <c r="D328" s="17"/>
       <c r="E328" s="12"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:5">
       <c r="A329" s="20"/>
       <c r="B329" s="20"/>
       <c r="C329" s="23"/>
       <c r="D329" s="17"/>
       <c r="E329" s="12"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:5">
       <c r="A330" s="20"/>
       <c r="B330" s="20"/>
       <c r="C330" s="23"/>
       <c r="D330" s="17"/>
       <c r="E330" s="12"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:5">
       <c r="A331" s="20"/>
       <c r="B331" s="20"/>
       <c r="C331" s="22"/>
       <c r="D331" s="16"/>
       <c r="E331" s="10"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:5">
       <c r="A332" s="20"/>
       <c r="B332" s="20"/>
       <c r="C332" s="22"/>
       <c r="D332" s="16"/>
       <c r="E332" s="10"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:5">
       <c r="A333" s="20"/>
       <c r="B333" s="20"/>
       <c r="C333" s="23"/>
       <c r="D333" s="16"/>
       <c r="E333" s="10"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:5">
       <c r="A334" s="20"/>
       <c r="B334" s="20"/>
       <c r="C334" s="23"/>
       <c r="D334" s="16"/>
       <c r="E334" s="10"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:5">
       <c r="A335" s="20"/>
       <c r="B335" s="20"/>
       <c r="C335" s="23"/>
       <c r="D335" s="17"/>
       <c r="E335" s="12"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:5">
       <c r="A336" s="20"/>
       <c r="B336" s="20"/>
       <c r="C336" s="23"/>
       <c r="D336" s="16"/>
       <c r="E336" s="10"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:5">
       <c r="A337" s="20"/>
       <c r="B337" s="20"/>
       <c r="C337" s="23"/>
       <c r="D337" s="16"/>
       <c r="E337" s="10"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:5">
       <c r="A338" s="20"/>
       <c r="B338" s="20"/>
       <c r="C338" s="23"/>
       <c r="D338" s="17"/>
       <c r="E338" s="12"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:5">
       <c r="A339" s="20"/>
       <c r="B339" s="20"/>
       <c r="C339" s="23"/>
       <c r="D339" s="16"/>
       <c r="E339" s="10"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:5">
       <c r="A340" s="20"/>
       <c r="B340" s="20"/>
       <c r="C340" s="23"/>
       <c r="D340" s="17"/>
       <c r="E340" s="12"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:5">
       <c r="A341" s="20"/>
       <c r="B341" s="20"/>
       <c r="C341" s="23"/>
       <c r="D341" s="17"/>
       <c r="E341" s="12"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:5">
       <c r="A342" s="20"/>
       <c r="B342" s="20"/>
       <c r="C342" s="23"/>
       <c r="D342" s="17"/>
       <c r="E342" s="12"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:5">
       <c r="A343" s="20"/>
       <c r="B343" s="20"/>
       <c r="C343" s="23"/>
       <c r="D343" s="17"/>
       <c r="E343" s="12"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:5">
       <c r="A344" s="20"/>
       <c r="B344" s="20"/>
       <c r="C344" s="22"/>
       <c r="D344" s="16"/>
       <c r="E344" s="10"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:5">
       <c r="A345" s="20"/>
       <c r="B345" s="20"/>
       <c r="C345" s="22"/>
       <c r="D345" s="16"/>
       <c r="E345" s="10"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:5">
       <c r="A346" s="20"/>
       <c r="B346" s="20"/>
       <c r="C346" s="22"/>
       <c r="D346" s="16"/>
       <c r="E346" s="10"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:5">
       <c r="A347" s="20"/>
       <c r="B347" s="20"/>
       <c r="C347" s="23"/>
       <c r="D347" s="16"/>
       <c r="E347" s="10"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:5">
       <c r="A348" s="20"/>
       <c r="B348" s="20"/>
       <c r="C348" s="23"/>
       <c r="D348" s="17"/>
       <c r="E348" s="12"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:5">
       <c r="A349" s="20"/>
       <c r="B349" s="20"/>
       <c r="C349" s="23"/>
       <c r="D349" s="16"/>
       <c r="E349" s="10"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:5">
       <c r="A350" s="20"/>
       <c r="B350" s="20"/>
       <c r="C350" s="23"/>
       <c r="D350" s="17"/>
       <c r="E350" s="12"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:5">
       <c r="A351" s="20"/>
       <c r="B351" s="20"/>
       <c r="C351" s="23"/>
       <c r="D351" s="17"/>
       <c r="E351" s="12"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:5">
       <c r="A352" s="20"/>
       <c r="B352" s="20"/>
       <c r="C352" s="23"/>
       <c r="D352" s="17"/>
       <c r="E352" s="12"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:5">
       <c r="A353" s="20"/>
       <c r="B353" s="20"/>
       <c r="C353" s="22"/>
       <c r="D353" s="16"/>
       <c r="E353" s="10"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:5">
       <c r="A354" s="20"/>
       <c r="B354" s="20"/>
       <c r="C354" s="22"/>
       <c r="D354" s="16"/>
       <c r="E354" s="10"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:5">
       <c r="A355" s="20"/>
       <c r="B355" s="20"/>
       <c r="C355" s="23"/>
       <c r="D355" s="16"/>
       <c r="E355" s="10"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:5">
       <c r="A356" s="20"/>
       <c r="B356" s="20"/>
       <c r="C356" s="23"/>
       <c r="D356" s="17"/>
       <c r="E356" s="12"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:5">
       <c r="A357" s="20"/>
       <c r="B357" s="20"/>
       <c r="C357" s="23"/>
       <c r="D357" s="16"/>
       <c r="E357" s="10"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:5">
       <c r="A358" s="20"/>
       <c r="B358" s="20"/>
       <c r="C358" s="23"/>
       <c r="D358" s="16"/>
       <c r="E358" s="10"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:5">
       <c r="A359" s="20"/>
       <c r="B359" s="20"/>
       <c r="C359" s="23"/>
       <c r="D359" s="17"/>
       <c r="E359" s="12"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:5">
       <c r="A360" s="20"/>
       <c r="B360" s="20"/>
       <c r="C360" s="23"/>
       <c r="D360" s="17"/>
       <c r="E360" s="12"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:5">
       <c r="A361" s="20"/>
       <c r="B361" s="20"/>
       <c r="C361" s="23"/>
       <c r="D361" s="17"/>
       <c r="E361" s="12"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:5">
       <c r="A362" s="20"/>
       <c r="B362" s="20"/>
       <c r="C362" s="23"/>
       <c r="D362" s="17"/>
       <c r="E362" s="12"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:5">
       <c r="A363" s="20"/>
       <c r="B363" s="20"/>
       <c r="C363" s="23"/>
       <c r="D363" s="17"/>
       <c r="E363" s="12"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:5">
       <c r="A364" s="20"/>
       <c r="B364" s="20"/>
       <c r="C364" s="22"/>
       <c r="D364" s="16"/>
       <c r="E364" s="10"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:5">
       <c r="A365" s="20"/>
       <c r="B365" s="20"/>
       <c r="C365" s="22"/>
       <c r="D365" s="16"/>
       <c r="E365" s="10"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:5">
       <c r="A366" s="20"/>
       <c r="B366" s="20"/>
       <c r="C366" s="22"/>
       <c r="D366" s="16"/>
       <c r="E366" s="10"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:5">
       <c r="A367" s="20"/>
       <c r="B367" s="20"/>
       <c r="C367" s="23"/>
       <c r="D367" s="16"/>
       <c r="E367" s="10"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:5">
       <c r="A368" s="20"/>
       <c r="B368" s="20"/>
       <c r="C368" s="23"/>
       <c r="D368" s="17"/>
       <c r="E368" s="12"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:5">
       <c r="A369" s="20"/>
       <c r="B369" s="20"/>
       <c r="C369" s="23"/>
       <c r="D369" s="17"/>
       <c r="E369" s="12"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:5">
       <c r="A370" s="20"/>
       <c r="B370" s="20"/>
       <c r="C370" s="23"/>
       <c r="D370" s="17"/>
       <c r="E370" s="12"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:5">
       <c r="A371" s="20"/>
       <c r="B371" s="20"/>
       <c r="C371" s="23"/>
       <c r="D371" s="17"/>
       <c r="E371" s="12"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:5">
       <c r="A372" s="20"/>
       <c r="B372" s="20"/>
       <c r="C372" s="23"/>
       <c r="D372" s="17"/>
       <c r="E372" s="12"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:5">
       <c r="A373" s="20"/>
       <c r="B373" s="20"/>
       <c r="C373" s="23"/>
       <c r="D373" s="17"/>
       <c r="E373" s="12"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:5">
       <c r="A374" s="20"/>
       <c r="B374" s="20"/>
       <c r="C374" s="24"/>
       <c r="D374" s="17"/>
       <c r="E374" s="12"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:5">
       <c r="A375" s="20"/>
       <c r="B375" s="20"/>
       <c r="C375" s="23"/>
       <c r="D375" s="16"/>
       <c r="E375" s="10"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:5">
       <c r="A376" s="20"/>
       <c r="B376" s="20"/>
       <c r="C376" s="23"/>
       <c r="D376" s="17"/>
       <c r="E376" s="12"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:5">
       <c r="A377" s="20"/>
       <c r="B377" s="20"/>
       <c r="C377" s="23"/>
       <c r="D377" s="16"/>
       <c r="E377" s="10"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:5">
       <c r="A378" s="20"/>
       <c r="B378" s="20"/>
       <c r="C378" s="23"/>
       <c r="D378" s="17"/>
       <c r="E378" s="12"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:5">
       <c r="A379" s="20"/>
       <c r="B379" s="20"/>
       <c r="C379" s="23"/>
       <c r="D379" s="16"/>
       <c r="E379" s="10"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:5">
       <c r="A380" s="20"/>
       <c r="B380" s="20"/>
       <c r="C380" s="23"/>
       <c r="D380" s="17"/>
       <c r="E380" s="12"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:5">
       <c r="A381" s="20"/>
       <c r="B381" s="20"/>
       <c r="C381" s="22"/>
       <c r="D381" s="16"/>
       <c r="E381" s="10"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:5">
       <c r="A382" s="20"/>
       <c r="B382" s="20"/>
       <c r="C382" s="22"/>
       <c r="D382" s="16"/>
       <c r="E382" s="10"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:5">
       <c r="A383" s="20"/>
       <c r="B383" s="20"/>
       <c r="C383" s="22"/>
       <c r="D383" s="16"/>
       <c r="E383" s="10"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:5">
       <c r="A384" s="20"/>
       <c r="B384" s="20"/>
       <c r="C384" s="23"/>
       <c r="D384" s="16"/>
       <c r="E384" s="10"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:5">
       <c r="A385" s="20"/>
       <c r="B385" s="20"/>
       <c r="C385" s="23"/>
       <c r="D385" s="17"/>
       <c r="E385" s="12"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:5">
       <c r="A386" s="20"/>
       <c r="B386" s="20"/>
       <c r="C386" s="23"/>
       <c r="D386" s="17"/>
       <c r="E386" s="12"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:5">
       <c r="A387" s="20"/>
       <c r="B387" s="20"/>
       <c r="C387" s="23"/>
       <c r="D387" s="17"/>
       <c r="E387" s="12"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:5">
       <c r="A388" s="20"/>
       <c r="B388" s="20"/>
       <c r="C388" s="23"/>
       <c r="D388" s="17"/>
       <c r="E388" s="12"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:5">
       <c r="A389" s="20"/>
       <c r="B389" s="20"/>
       <c r="C389" s="23"/>
       <c r="D389" s="17"/>
       <c r="E389" s="12"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:5">
       <c r="A390" s="20"/>
       <c r="B390" s="20"/>
       <c r="C390" s="23"/>
       <c r="D390" s="17"/>
       <c r="E390" s="12"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:5">
       <c r="A391" s="20"/>
       <c r="B391" s="20"/>
       <c r="C391" s="24"/>
       <c r="D391" s="17"/>
       <c r="E391" s="12"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:5">
       <c r="A392" s="20"/>
       <c r="B392" s="20"/>
       <c r="C392" s="23"/>
       <c r="D392" s="16"/>
       <c r="E392" s="10"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:5">
       <c r="A393" s="20"/>
       <c r="B393" s="20"/>
       <c r="C393" s="23"/>
       <c r="D393" s="17"/>
       <c r="E393" s="12"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:5">
       <c r="A394" s="20"/>
       <c r="B394" s="20"/>
       <c r="C394" s="23"/>
       <c r="D394" s="16"/>
       <c r="E394" s="10"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:5">
       <c r="A395" s="20"/>
       <c r="B395" s="20"/>
       <c r="C395" s="23"/>
       <c r="D395" s="17"/>
       <c r="E395" s="12"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:5">
       <c r="A396" s="20"/>
       <c r="B396" s="20"/>
       <c r="C396" s="23"/>
       <c r="D396" s="16"/>
       <c r="E396" s="10"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:5">
       <c r="A397" s="20"/>
       <c r="B397" s="20"/>
       <c r="C397" s="23"/>
       <c r="D397" s="17"/>
       <c r="E397" s="12"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:5">
       <c r="A398" s="20"/>
       <c r="B398" s="20"/>
       <c r="C398" s="22"/>
       <c r="D398" s="16"/>
       <c r="E398" s="10"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:5">
       <c r="A399" s="20"/>
       <c r="B399" s="20"/>
       <c r="C399" s="22"/>
       <c r="D399" s="16"/>
       <c r="E399" s="10"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:5">
       <c r="A400" s="20"/>
       <c r="B400" s="20"/>
       <c r="C400" s="22"/>
       <c r="D400" s="16"/>
       <c r="E400" s="10"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:5">
       <c r="A401" s="20"/>
       <c r="B401" s="20"/>
       <c r="C401" s="23"/>
       <c r="D401" s="16"/>
       <c r="E401" s="10"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:5">
       <c r="A402" s="20"/>
       <c r="B402" s="20"/>
       <c r="C402" s="23"/>
       <c r="D402" s="17"/>
       <c r="E402" s="12"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:5">
       <c r="A403" s="20"/>
       <c r="B403" s="20"/>
       <c r="C403" s="23"/>
       <c r="D403" s="17"/>
       <c r="E403" s="12"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:5">
       <c r="A404" s="20"/>
       <c r="B404" s="20"/>
       <c r="C404" s="23"/>
       <c r="D404" s="17"/>
       <c r="E404" s="12"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:5">
       <c r="A405" s="20"/>
       <c r="B405" s="20"/>
       <c r="C405" s="23"/>
       <c r="D405" s="17"/>
       <c r="E405" s="12"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:5">
       <c r="A406" s="20"/>
       <c r="B406" s="20"/>
       <c r="C406" s="23"/>
       <c r="D406" s="17"/>
       <c r="E406" s="12"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:5">
       <c r="A407" s="20"/>
       <c r="B407" s="20"/>
       <c r="C407" s="23"/>
       <c r="D407" s="17"/>
       <c r="E407" s="12"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:5">
       <c r="A408" s="20"/>
       <c r="B408" s="20"/>
       <c r="C408" s="24"/>
       <c r="D408" s="17"/>
       <c r="E408" s="12"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:5">
       <c r="A409" s="20"/>
       <c r="B409" s="20"/>
       <c r="C409" s="23"/>
       <c r="D409" s="16"/>
       <c r="E409" s="10"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:5">
       <c r="A410" s="20"/>
       <c r="B410" s="20"/>
       <c r="C410" s="23"/>
       <c r="D410" s="17"/>
       <c r="E410" s="12"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:5">
       <c r="A411" s="20"/>
       <c r="B411" s="20"/>
       <c r="C411" s="23"/>
       <c r="D411" s="16"/>
       <c r="E411" s="10"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:5">
       <c r="A412" s="20"/>
       <c r="B412" s="20"/>
       <c r="C412" s="23"/>
       <c r="D412" s="17"/>
       <c r="E412" s="12"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:5">
       <c r="A413" s="20"/>
       <c r="B413" s="20"/>
       <c r="C413" s="23"/>
       <c r="D413" s="16"/>
       <c r="E413" s="10"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:5">
       <c r="A414" s="20"/>
       <c r="B414" s="20"/>
       <c r="C414" s="23"/>
       <c r="D414" s="17"/>
       <c r="E414" s="12"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:5">
       <c r="A415" s="20"/>
       <c r="B415" s="20"/>
       <c r="C415" s="25"/>
       <c r="D415" s="17"/>
       <c r="E415" s="12"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:5">
       <c r="A416" s="20"/>
       <c r="B416" s="20"/>
       <c r="C416" s="21"/>
       <c r="D416" s="16"/>
       <c r="E416" s="10"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:5">
       <c r="A417" s="20"/>
       <c r="B417" s="20"/>
       <c r="C417" s="21"/>
       <c r="D417" s="16"/>
       <c r="E417" s="10"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:5">
       <c r="A418" s="20"/>
       <c r="B418" s="20"/>
       <c r="C418" s="21"/>
       <c r="D418" s="16"/>
       <c r="E418" s="10"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:5">
       <c r="A419" s="20"/>
       <c r="B419" s="20"/>
       <c r="C419" s="21"/>
       <c r="D419" s="16"/>
       <c r="E419" s="10"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:5">
       <c r="A420" s="20"/>
       <c r="B420" s="20"/>
       <c r="C420" s="21"/>
       <c r="D420" s="16"/>
       <c r="E420" s="10"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:5">
       <c r="A421" s="20"/>
       <c r="B421" s="20"/>
       <c r="C421" s="26"/>
       <c r="D421" s="16"/>
       <c r="E421" s="10"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:5">
       <c r="A422" s="20"/>
       <c r="B422" s="20"/>
       <c r="C422" s="26"/>
       <c r="D422" s="16"/>
       <c r="E422" s="10"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:5">
       <c r="A423" s="20"/>
       <c r="B423" s="20"/>
       <c r="C423" s="26"/>
       <c r="D423" s="16"/>
       <c r="E423" s="10"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:5">
       <c r="A424" s="20"/>
       <c r="B424" s="20"/>
       <c r="C424" s="25"/>
       <c r="D424" s="16"/>
       <c r="E424" s="10"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:5">
       <c r="A425" s="20"/>
       <c r="B425" s="20"/>
       <c r="C425" s="21"/>
       <c r="D425" s="16"/>
       <c r="E425" s="10"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:5">
       <c r="A426" s="20"/>
       <c r="B426" s="20"/>
       <c r="C426" s="21"/>
       <c r="D426" s="16"/>
       <c r="E426" s="10"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:5">
       <c r="A427" s="20"/>
       <c r="B427" s="20"/>
       <c r="C427" s="21"/>
       <c r="D427" s="16"/>
       <c r="E427" s="10"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:5">
       <c r="A428" s="20"/>
       <c r="B428" s="20"/>
       <c r="C428" s="21"/>
       <c r="D428" s="16"/>
       <c r="E428" s="10"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:5">
       <c r="A429" s="20"/>
       <c r="B429" s="20"/>
       <c r="C429" s="21"/>
       <c r="D429" s="16"/>
       <c r="E429" s="10"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:5">
       <c r="A430" s="20"/>
       <c r="B430" s="20"/>
       <c r="C430" s="26"/>
       <c r="D430" s="16"/>
       <c r="E430" s="10"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:5">
       <c r="A431" s="20"/>
       <c r="B431" s="20"/>
       <c r="C431" s="26"/>
       <c r="D431" s="16"/>
       <c r="E431" s="10"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:5">
       <c r="A432" s="20"/>
       <c r="B432" s="20"/>
       <c r="C432" s="26"/>
       <c r="D432" s="16"/>
       <c r="E432" s="10"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:5">
       <c r="A433" s="27"/>
       <c r="B433" s="14"/>
       <c r="C433" s="28"/>
       <c r="D433" s="16"/>
       <c r="E433" s="10"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:5">
       <c r="A434" s="27"/>
       <c r="B434" s="14"/>
       <c r="C434" s="28"/>
       <c r="D434" s="16"/>
       <c r="E434" s="10"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:5">
       <c r="A435" s="29"/>
       <c r="B435" s="14"/>
       <c r="C435" s="28"/>
       <c r="D435" s="16"/>
       <c r="E435" s="10"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:5">
       <c r="A436" s="29"/>
       <c r="B436" s="14"/>
       <c r="C436" s="28"/>
       <c r="D436" s="16"/>
       <c r="E436" s="10"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:5">
       <c r="A437" s="27"/>
       <c r="B437" s="14"/>
       <c r="C437" s="28"/>
       <c r="D437" s="16"/>
       <c r="E437" s="10"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:5">
       <c r="A438" s="27"/>
       <c r="B438" s="14"/>
       <c r="C438" s="28"/>
       <c r="D438" s="16"/>
       <c r="E438" s="10"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:5">
       <c r="A439" s="27"/>
       <c r="B439" s="14"/>
       <c r="C439" s="28"/>
       <c r="D439" s="16"/>
       <c r="E439" s="10"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:5">
       <c r="A440" s="27"/>
       <c r="B440" s="14"/>
       <c r="C440" s="28"/>
       <c r="D440" s="16"/>
       <c r="E440" s="10"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:5">
       <c r="A441" s="27"/>
       <c r="B441" s="14"/>
       <c r="C441" s="28"/>
       <c r="D441" s="16"/>
       <c r="E441" s="10"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:5">
       <c r="A442" s="30"/>
       <c r="B442" s="14"/>
       <c r="C442" s="28"/>
       <c r="D442" s="16"/>
       <c r="E442" s="10"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:5">
       <c r="A443" s="30"/>
       <c r="B443" s="14"/>
       <c r="C443" s="28"/>
       <c r="D443" s="16"/>
       <c r="E443" s="10"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:5">
       <c r="A444" s="30"/>
       <c r="B444" s="14"/>
       <c r="C444" s="28"/>
       <c r="D444" s="16"/>
       <c r="E444" s="10"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:5">
       <c r="A445" s="30"/>
       <c r="B445" s="14"/>
       <c r="C445" s="28"/>
       <c r="D445" s="16"/>
       <c r="E445" s="10"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:5">
       <c r="A446" s="30"/>
       <c r="B446" s="14"/>
       <c r="C446" s="28"/>
       <c r="D446" s="16"/>
       <c r="E446" s="10"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:5">
       <c r="A447" s="31"/>
       <c r="B447" s="14"/>
       <c r="C447" s="28"/>
       <c r="D447" s="16"/>
       <c r="E447" s="10"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:5">
       <c r="A448" s="30"/>
       <c r="B448" s="14"/>
       <c r="C448" s="28"/>
       <c r="D448" s="16"/>
       <c r="E448" s="10"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:5">
       <c r="A449" s="31"/>
       <c r="B449" s="14"/>
       <c r="C449" s="28"/>
       <c r="D449" s="16"/>
       <c r="E449" s="10"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:5">
       <c r="A450" s="30"/>
       <c r="B450" s="14"/>
       <c r="C450" s="28"/>
       <c r="D450" s="16"/>
       <c r="E450" s="10"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:5">
       <c r="A451" s="31"/>
       <c r="B451" s="14"/>
       <c r="C451" s="28"/>
       <c r="D451" s="16"/>
       <c r="E451" s="10"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:5">
       <c r="A452" s="30"/>
       <c r="B452" s="14"/>
       <c r="C452" s="28"/>
       <c r="D452" s="16"/>
       <c r="E452" s="10"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:5">
       <c r="A453" s="30"/>
       <c r="B453" s="14"/>
       <c r="C453" s="28"/>
       <c r="D453" s="16"/>
       <c r="E453" s="10"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:5">
       <c r="A454" s="30"/>
       <c r="B454" s="14"/>
       <c r="C454" s="28"/>
       <c r="D454" s="16"/>
       <c r="E454" s="10"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:5">
       <c r="A455" s="30"/>
       <c r="B455" s="14"/>
       <c r="C455" s="28"/>
       <c r="D455" s="16"/>
       <c r="E455" s="10"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:5">
       <c r="A456" s="31"/>
       <c r="B456" s="14"/>
       <c r="C456" s="28"/>
       <c r="D456" s="16"/>
       <c r="E456" s="10"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:5">
       <c r="A457" s="30"/>
       <c r="B457" s="14"/>
       <c r="C457" s="28"/>
       <c r="D457" s="16"/>
       <c r="E457" s="10"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:5">
       <c r="A458" s="30"/>
       <c r="B458" s="14"/>
       <c r="C458" s="28"/>
       <c r="D458" s="16"/>
       <c r="E458" s="10"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:5">
       <c r="A459" s="30"/>
       <c r="B459" s="14"/>
       <c r="C459" s="28"/>
       <c r="D459" s="16"/>
       <c r="E459" s="10"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:5">
       <c r="A460" s="30"/>
       <c r="B460" s="14"/>
       <c r="C460" s="28"/>
       <c r="D460" s="16"/>
       <c r="E460" s="10"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:5">
       <c r="A461" s="30"/>
       <c r="B461" s="14"/>
       <c r="C461" s="28"/>
       <c r="D461" s="16"/>
       <c r="E461" s="10"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:5">
       <c r="A462" s="31"/>
       <c r="B462" s="14"/>
       <c r="C462" s="28"/>
       <c r="D462" s="16"/>
       <c r="E462" s="10"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:5">
       <c r="A463" s="31"/>
       <c r="B463" s="14"/>
       <c r="C463" s="28"/>
       <c r="D463" s="16"/>
       <c r="E463" s="10"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:5">
       <c r="A464" s="31"/>
       <c r="B464" s="14"/>
       <c r="C464" s="28"/>
       <c r="D464" s="16"/>
       <c r="E464" s="10"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:5">
       <c r="A465" s="31"/>
       <c r="B465" s="14"/>
       <c r="C465" s="28"/>
       <c r="D465" s="16"/>
       <c r="E465" s="10"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:5">
       <c r="A466" s="30"/>
       <c r="B466" s="14"/>
       <c r="C466" s="28"/>
       <c r="D466" s="16"/>
       <c r="E466" s="10"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:5">
       <c r="A467" s="30"/>
       <c r="B467" s="14"/>
       <c r="C467" s="28"/>
       <c r="D467" s="16"/>
       <c r="E467" s="10"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:5">
       <c r="A468" s="31"/>
       <c r="B468" s="14"/>
       <c r="C468" s="28"/>
       <c r="D468" s="16"/>
       <c r="E468" s="10"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:5">
       <c r="A469" s="31"/>
       <c r="B469" s="14"/>
       <c r="C469" s="28"/>
       <c r="D469" s="16"/>
       <c r="E469" s="10"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:5">
       <c r="A470" s="30"/>
       <c r="B470" s="14"/>
       <c r="C470" s="28"/>
       <c r="D470" s="16"/>
       <c r="E470" s="10"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:5">
       <c r="A471" s="30"/>
       <c r="B471" s="14"/>
       <c r="C471" s="28"/>
       <c r="D471" s="16"/>
       <c r="E471" s="10"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:5">
       <c r="A472" s="30"/>
       <c r="B472" s="14"/>
       <c r="C472" s="28"/>
       <c r="D472" s="16"/>
       <c r="E472" s="10"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:5">
       <c r="A473" s="30"/>
       <c r="B473" s="14"/>
       <c r="C473" s="28"/>
       <c r="D473" s="16"/>
       <c r="E473" s="10"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:5">
       <c r="A474" s="30"/>
       <c r="B474" s="14"/>
       <c r="C474" s="28"/>
       <c r="D474" s="16"/>
       <c r="E474" s="10"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:5">
       <c r="A475" s="32"/>
       <c r="B475" s="14"/>
       <c r="C475" s="28"/>
       <c r="D475" s="17"/>
       <c r="E475" s="12"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:5">
       <c r="A476" s="32"/>
       <c r="B476" s="14"/>
       <c r="C476" s="28"/>
@@ -4578,46 +5268,39 @@
       <c r="E476" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:E61" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B40" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B40 B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Distribution,MPA,LMPA,NPA,POSM"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B41:B476" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B60 B62:B476" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Distribution,MPA,LMPA,NPA,POSM"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.3927125506073"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="68.28515625"/>
+    <col min="2" max="2" width="63.42578125"/>
+    <col min="3" max="3" width="11"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4627,7 +5310,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -4641,211 +5324,211 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4">
       <c r="A3" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="35" t="n">
+      <c r="C3" s="35">
         <v>43163</v>
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="36"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="36"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="36"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4">
       <c r="A7" s="14"/>
       <c r="B7" s="19"/>
       <c r="C7" s="36"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4">
       <c r="A8" s="14"/>
       <c r="B8" s="19"/>
       <c r="C8" s="36"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="25"/>
       <c r="C9" s="36"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="36"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="36"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4">
       <c r="A12" s="14"/>
       <c r="B12" s="18"/>
       <c r="C12" s="36"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="37"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="36"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="36"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="37"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="36"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="36"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="36"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="36"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="36"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="36"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="36"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4">
       <c r="A24" s="14"/>
       <c r="B24" s="19"/>
       <c r="C24" s="36"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4">
       <c r="A25" s="14"/>
       <c r="B25" s="19"/>
       <c r="C25" s="36"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4">
       <c r="A26" s="14"/>
       <c r="B26" s="25"/>
       <c r="C26" s="36"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4">
       <c r="A27" s="14"/>
       <c r="B27" s="19"/>
       <c r="C27" s="36"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="36"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="36"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="37"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="36"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="36"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="37"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="36"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="36"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="36"/>
@@ -4853,83 +5536,71 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Distribution,MPA,LMPA,NPA,POSM"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="19.85546875"/>
+    <col min="2" max="2" width="40.28515625"/>
+    <col min="3" max="3" width="12.85546875"/>
+    <col min="4" max="4" width="33"/>
+    <col min="5" max="5" width="16.140625"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -4938,16 +5609,16 @@
       <c r="D3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="44" t="n">
+      <c r="E3" s="43">
         <v>8414161001059</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -4956,16 +5627,16 @@
       <c r="D4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="44" t="n">
+      <c r="E4" s="43">
         <v>8414161001073</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -4974,16 +5645,16 @@
       <c r="D5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="44" t="n">
+      <c r="E5" s="43">
         <v>8414161001141</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -4992,16 +5663,16 @@
       <c r="D6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="43">
         <v>8414161001172</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -5010,16 +5681,16 @@
       <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="44" t="n">
+      <c r="E7" s="43">
         <v>8414161001202</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -5028,16 +5699,16 @@
       <c r="D8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="44" t="n">
+      <c r="E8" s="43">
         <v>8414161000038</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -5046,16 +5717,16 @@
       <c r="D9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="43">
         <v>8414161000007</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -5064,16 +5735,16 @@
       <c r="D10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="44" t="n">
+      <c r="E10" s="43">
         <v>8414161000052</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -5082,16 +5753,16 @@
       <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="44" t="n">
+      <c r="E11" s="43">
         <v>8410590200117</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -5100,16 +5771,16 @@
       <c r="D12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="44" t="n">
+      <c r="E12" s="43">
         <v>8410590200094</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -5118,16 +5789,16 @@
       <c r="D13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="44" t="n">
+      <c r="E13" s="43">
         <v>8414161001042</v>
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -5136,16 +5807,16 @@
       <c r="D14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="44" t="n">
+      <c r="E14" s="43">
         <v>8414161001080</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -5154,16 +5825,16 @@
       <c r="D15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="44" t="n">
+      <c r="E15" s="43">
         <v>8414161001028</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -5172,16 +5843,16 @@
       <c r="D16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="44" t="n">
+      <c r="E16" s="43">
         <v>8414161001219</v>
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -5190,16 +5861,16 @@
       <c r="D17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="44" t="n">
+      <c r="E17" s="43">
         <v>75032715</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -5208,16 +5879,16 @@
       <c r="D18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="44" t="n">
+      <c r="E18" s="43">
         <v>5410228141266</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -5226,16 +5897,16 @@
       <c r="D19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="44" t="n">
+      <c r="E19" s="43">
         <v>5410228142072</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -5244,16 +5915,16 @@
       <c r="D20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="44" t="n">
+      <c r="E20" s="43">
         <v>5410228142218</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -5262,13 +5933,13 @@
       <c r="D21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="44" t="n">
+      <c r="E21" s="43">
         <v>8410590004975</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -5280,13 +5951,13 @@
       <c r="D22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="44" t="n">
+      <c r="E22" s="43">
         <v>8410590004982</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -5298,13 +5969,13 @@
       <c r="D23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="44" t="n">
+      <c r="E23" s="43">
         <v>8410590004999</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -5316,13 +5987,13 @@
       <c r="D24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="44" t="n">
+      <c r="E24" s="43">
         <v>8410590004944</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -5334,13 +6005,13 @@
       <c r="D25" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="44" t="n">
+      <c r="E25" s="43">
         <v>3155930001355</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -5352,13 +6023,13 @@
       <c r="D26" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="44" t="n">
+      <c r="E26" s="43">
         <v>8410590004890</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -5370,13 +6041,13 @@
       <c r="D27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="44" t="n">
+      <c r="E27" s="43">
         <v>8410590004890</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -5388,13 +6059,13 @@
       <c r="D28" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="44" t="n">
+      <c r="E28" s="43">
         <v>8410590004890</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -5406,13 +6077,13 @@
       <c r="D29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="44" t="n">
+      <c r="E29" s="43">
         <v>8410590004890</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="42" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -5424,13 +6095,13 @@
       <c r="D30" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="44" t="n">
+      <c r="E30" s="43">
         <v>3155930006015</v>
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -5442,13 +6113,13 @@
       <c r="D31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="44" t="n">
+      <c r="E31" s="43">
         <v>8414161041185</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="42" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -5460,13 +6131,13 @@
       <c r="D32" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="44" t="n">
+      <c r="E32" s="43">
         <v>8410793262936</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -5478,13 +6149,13 @@
       <c r="D33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="44" t="n">
+      <c r="E33" s="43">
         <v>8410590011416</v>
       </c>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="42" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -5496,13 +6167,13 @@
       <c r="D34" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="44" t="n">
+      <c r="E34" s="43">
         <v>8410590010419</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -5514,13 +6185,13 @@
       <c r="D35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="44" t="n">
+      <c r="E35" s="43">
         <v>8414161001073</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -5532,13 +6203,13 @@
       <c r="D36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="44" t="n">
+      <c r="E36" s="43">
         <v>8410590012543</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="42" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -5550,12 +6221,12 @@
       <c r="D37" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="44" t="n">
+      <c r="E37" s="43">
         <v>8414161001219</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="42" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -5567,12 +6238,12 @@
       <c r="D38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="44" t="n">
+      <c r="E38" s="43">
         <v>8414161001141</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="42" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -5584,12 +6255,12 @@
       <c r="D39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="44" t="n">
+      <c r="E39" s="43">
         <v>8414161001172</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="42" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -5601,12 +6272,12 @@
       <c r="D40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="44" t="n">
+      <c r="E40" s="43">
         <v>8414161001202</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="42" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -5618,12 +6289,12 @@
       <c r="D41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="44" t="n">
+      <c r="E41" s="43">
         <v>8414161000038</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="42" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -5635,12 +6306,12 @@
       <c r="D42" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="44" t="n">
+      <c r="E42" s="43">
         <v>8410590200117</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="42" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -5652,12 +6323,12 @@
       <c r="D43" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="44" t="n">
+      <c r="E43" s="43">
         <v>8410590200094</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="42" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -5669,12 +6340,12 @@
       <c r="D44" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="44" t="n">
+      <c r="E44" s="43">
         <v>8414161000052</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="42" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -5686,12 +6357,12 @@
       <c r="D45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="44" t="n">
+      <c r="E45" s="43">
         <v>8414161000007</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="42" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -5703,12 +6374,12 @@
       <c r="D46" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="44" t="n">
+      <c r="E46" s="43">
         <v>8410590004975</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="42" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -5720,12 +6391,12 @@
       <c r="D47" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="44" t="n">
+      <c r="E47" s="43">
         <v>8410590004982</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="42" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -5737,12 +6408,12 @@
       <c r="D48" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="44" t="n">
+      <c r="E48" s="43">
         <v>8410590004999</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -5754,12 +6425,12 @@
       <c r="D49" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="44" t="n">
+      <c r="E49" s="43">
         <v>75032715</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="42" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -5771,12 +6442,12 @@
       <c r="D50" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="44" t="n">
+      <c r="E50" s="43">
         <v>5410228141266</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="42" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -5788,12 +6459,12 @@
       <c r="D51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="44" t="n">
+      <c r="E51" s="43">
         <v>5410228142072</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="42" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -5805,12 +6476,12 @@
       <c r="D52" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="44" t="n">
+      <c r="E52" s="43">
         <v>5410228142218</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="42" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="14" t="s">
@@ -5822,12 +6493,12 @@
       <c r="D53" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="44" t="n">
+      <c r="E53" s="43">
         <v>8414161041185</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -5839,12 +6510,12 @@
       <c r="D54" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="44" t="n">
+      <c r="E54" s="43">
         <v>8410793262936</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="42" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="14" t="s">
@@ -5856,12 +6527,12 @@
       <c r="D55" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="44" t="n">
+      <c r="E55" s="43">
         <v>8414161001042</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="42" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="14" t="s">
@@ -5873,12 +6544,12 @@
       <c r="D56" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="44" t="n">
+      <c r="E56" s="43">
         <v>8414161001080</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="42" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="14" t="s">
@@ -5890,12 +6561,12 @@
       <c r="D57" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="44" t="n">
+      <c r="E57" s="43">
         <v>8410590004944</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="42" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="14" t="s">
@@ -5907,12 +6578,12 @@
       <c r="D58" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="44" t="n">
+      <c r="E58" s="43">
         <v>3155930001355</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="42" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="14" t="s">
@@ -5924,12 +6595,12 @@
       <c r="D59" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="44" t="n">
+      <c r="E59" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="42" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="14" t="s">
@@ -5941,12 +6612,12 @@
       <c r="D60" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="44" t="n">
+      <c r="E60" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="42" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -5958,12 +6629,12 @@
       <c r="D61" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="44" t="n">
+      <c r="E61" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="42" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -5975,12 +6646,12 @@
       <c r="D62" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="44" t="n">
+      <c r="E62" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="42" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -5992,12 +6663,12 @@
       <c r="D63" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="44" t="n">
+      <c r="E63" s="43">
         <v>3155930006015</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="42" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B64" s="14" t="s">
@@ -6009,12 +6680,12 @@
       <c r="D64" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="44" t="n">
+      <c r="E64" s="43">
         <v>8414161001059</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="42" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="14" t="s">
@@ -6026,12 +6697,12 @@
       <c r="D65" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="44" t="n">
+      <c r="E65" s="43">
         <v>8414161001073</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="42" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B66" s="14" t="s">
@@ -6043,12 +6714,12 @@
       <c r="D66" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="44" t="n">
+      <c r="E66" s="43">
         <v>8414161001141</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="42" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -6060,12 +6731,12 @@
       <c r="D67" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="44" t="n">
+      <c r="E67" s="43">
         <v>8414161001172</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="42" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -6077,12 +6748,12 @@
       <c r="D68" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="44" t="n">
+      <c r="E68" s="43">
         <v>8414161001202</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="42" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B69" s="14" t="s">
@@ -6094,12 +6765,12 @@
       <c r="D69" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="44" t="n">
+      <c r="E69" s="43">
         <v>8414161000038</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="42" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B70" s="14" t="s">
@@ -6111,12 +6782,12 @@
       <c r="D70" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E70" s="44" t="n">
+      <c r="E70" s="43">
         <v>8414161000007</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="42" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B71" s="14" t="s">
@@ -6128,12 +6799,12 @@
       <c r="D71" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="44" t="n">
+      <c r="E71" s="43">
         <v>8414161000052</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="42" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B72" s="14" t="s">
@@ -6145,12 +6816,12 @@
       <c r="D72" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="44" t="n">
+      <c r="E72" s="43">
         <v>8410590200117</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="42" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -6162,12 +6833,12 @@
       <c r="D73" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="44" t="n">
+      <c r="E73" s="43">
         <v>8410590200094</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="42" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B74" s="14" t="s">
@@ -6179,12 +6850,12 @@
       <c r="D74" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="44" t="n">
+      <c r="E74" s="43">
         <v>8414161001042</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="42" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B75" s="14" t="s">
@@ -6196,12 +6867,12 @@
       <c r="D75" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="44" t="n">
+      <c r="E75" s="43">
         <v>8414161001080</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="42" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B76" s="14" t="s">
@@ -6213,12 +6884,12 @@
       <c r="D76" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="44" t="n">
+      <c r="E76" s="43">
         <v>8414161001028</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="42" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B77" s="14" t="s">
@@ -6230,12 +6901,12 @@
       <c r="D77" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E77" s="44" t="n">
+      <c r="E77" s="43">
         <v>8414161001219</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="42" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B78" s="14" t="s">
@@ -6247,12 +6918,12 @@
       <c r="D78" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="44" t="n">
+      <c r="E78" s="43">
         <v>75032715</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="42" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B79" s="14" t="s">
@@ -6264,12 +6935,12 @@
       <c r="D79" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="44" t="n">
+      <c r="E79" s="43">
         <v>5410228141266</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="42" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -6281,12 +6952,12 @@
       <c r="D80" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="44" t="n">
+      <c r="E80" s="43">
         <v>5410228142072</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="42" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -6298,12 +6969,12 @@
       <c r="D81" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="44" t="n">
+      <c r="E81" s="43">
         <v>5410228142218</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="42" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -6315,12 +6986,12 @@
       <c r="D82" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E82" s="44" t="n">
+      <c r="E82" s="43">
         <v>8410590004975</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="42" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B83" s="14" t="s">
@@ -6332,12 +7003,12 @@
       <c r="D83" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="44" t="n">
+      <c r="E83" s="43">
         <v>8410590004982</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="42" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="14" t="s">
@@ -6349,12 +7020,12 @@
       <c r="D84" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E84" s="44" t="n">
+      <c r="E84" s="43">
         <v>8410590004999</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="42" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -6366,12 +7037,12 @@
       <c r="D85" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E85" s="44" t="n">
+      <c r="E85" s="43">
         <v>8410590004944</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="42" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -6383,12 +7054,12 @@
       <c r="D86" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="44" t="n">
+      <c r="E86" s="43">
         <v>3155930001355</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="42" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="14" t="s">
@@ -6400,12 +7071,12 @@
       <c r="D87" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E87" s="44" t="n">
+      <c r="E87" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="42" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="14" t="s">
@@ -6417,12 +7088,12 @@
       <c r="D88" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E88" s="44" t="n">
+      <c r="E88" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="42" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -6434,12 +7105,12 @@
       <c r="D89" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="44" t="n">
+      <c r="E89" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="42" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -6451,12 +7122,12 @@
       <c r="D90" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E90" s="44" t="n">
+      <c r="E90" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="42" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B91" s="14" t="s">
@@ -6468,12 +7139,12 @@
       <c r="D91" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E91" s="44" t="n">
+      <c r="E91" s="43">
         <v>3155930006015</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="42" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B92" s="14" t="s">
@@ -6485,12 +7156,12 @@
       <c r="D92" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E92" s="44" t="n">
+      <c r="E92" s="43">
         <v>8414161041185</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="42" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B93" s="14" t="s">
@@ -6502,12 +7173,12 @@
       <c r="D93" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E93" s="44" t="n">
+      <c r="E93" s="43">
         <v>8410793262936</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="42" t="s">
+    <row r="94" spans="1:5">
+      <c r="A94" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B94" s="14" t="s">
@@ -6519,12 +7190,12 @@
       <c r="D94" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E94" s="44" t="n">
+      <c r="E94" s="43">
         <v>8410590011416</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="42" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B95" s="14" t="s">
@@ -6536,12 +7207,12 @@
       <c r="D95" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="44" t="n">
+      <c r="E95" s="43">
         <v>8410590010419</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="42" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B96" s="14" t="s">
@@ -6553,12 +7224,12 @@
       <c r="D96" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="44" t="n">
+      <c r="E96" s="43">
         <v>8414161001073</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="42" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B97" s="14" t="s">
@@ -6570,12 +7241,12 @@
       <c r="D97" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E97" s="44" t="n">
+      <c r="E97" s="43">
         <v>8410590012543</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="42" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -6587,12 +7258,12 @@
       <c r="D98" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="44" t="n">
+      <c r="E98" s="43">
         <v>8414161001219</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="42" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B99" s="14" t="s">
@@ -6604,12 +7275,12 @@
       <c r="D99" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E99" s="44" t="n">
+      <c r="E99" s="43">
         <v>8414161001141</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="42" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B100" s="14" t="s">
@@ -6621,12 +7292,12 @@
       <c r="D100" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E100" s="44" t="n">
+      <c r="E100" s="43">
         <v>8414161001172</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="42" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -6638,12 +7309,12 @@
       <c r="D101" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="44" t="n">
+      <c r="E101" s="43">
         <v>8414161001202</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="42" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B102" s="14" t="s">
@@ -6655,12 +7326,12 @@
       <c r="D102" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E102" s="44" t="n">
+      <c r="E102" s="43">
         <v>8414161000038</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="42" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B103" s="14" t="s">
@@ -6672,12 +7343,12 @@
       <c r="D103" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="44" t="n">
+      <c r="E103" s="43">
         <v>8410590200117</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="42" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B104" s="14" t="s">
@@ -6686,15 +7357,15 @@
       <c r="C104" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="45" t="s">
+      <c r="D104" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="44" t="n">
+      <c r="E104" s="43">
         <v>8410590200094</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="42" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -6706,12 +7377,12 @@
       <c r="D105" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E105" s="44" t="n">
+      <c r="E105" s="43">
         <v>8414161000052</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="42" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B106" s="14" t="s">
@@ -6723,12 +7394,12 @@
       <c r="D106" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E106" s="44" t="n">
+      <c r="E106" s="43">
         <v>8414161000007</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="42" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B107" s="14" t="s">
@@ -6740,12 +7411,12 @@
       <c r="D107" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E107" s="44" t="n">
+      <c r="E107" s="43">
         <v>8410590004975</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="42" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B108" s="14" t="s">
@@ -6757,12 +7428,12 @@
       <c r="D108" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E108" s="44" t="n">
+      <c r="E108" s="43">
         <v>8410590004982</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="42" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B109" s="14" t="s">
@@ -6774,12 +7445,12 @@
       <c r="D109" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E109" s="44" t="n">
+      <c r="E109" s="43">
         <v>8410590004999</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="42" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B110" s="14" t="s">
@@ -6791,12 +7462,12 @@
       <c r="D110" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E110" s="44" t="n">
+      <c r="E110" s="43">
         <v>75032715</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="42" t="s">
+    <row r="111" spans="1:5">
+      <c r="A111" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B111" s="14" t="s">
@@ -6808,12 +7479,12 @@
       <c r="D111" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E111" s="44" t="n">
+      <c r="E111" s="43">
         <v>5410228141266</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="42" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B112" s="14" t="s">
@@ -6825,12 +7496,12 @@
       <c r="D112" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E112" s="44" t="n">
+      <c r="E112" s="43">
         <v>5410228142072</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="42" t="s">
+    <row r="113" spans="1:5">
+      <c r="A113" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B113" s="14" t="s">
@@ -6842,12 +7513,12 @@
       <c r="D113" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="44" t="n">
+      <c r="E113" s="43">
         <v>5410228142218</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="42" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B114" s="14" t="s">
@@ -6859,15 +7530,15 @@
       <c r="D114" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E114" s="44" t="n">
+      <c r="E114" s="43">
         <v>8414161041185</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="42" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B115" s="43" t="s">
+      <c r="B115" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -6876,15 +7547,15 @@
       <c r="D115" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E115" s="44" t="n">
+      <c r="E115" s="43">
         <v>8410793262936</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="42" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B116" s="43" t="s">
+      <c r="B116" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -6893,15 +7564,15 @@
       <c r="D116" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E116" s="44" t="n">
+      <c r="E116" s="43">
         <v>8414161001042</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="42" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B117" s="43" t="s">
+      <c r="B117" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -6910,15 +7581,15 @@
       <c r="D117" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="44" t="n">
+      <c r="E117" s="43">
         <v>8414161001080</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="42" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B118" s="43" t="s">
+      <c r="B118" s="42" t="s">
         <v>69</v>
       </c>
       <c r="C118" s="14" t="s">
@@ -6927,15 +7598,15 @@
       <c r="D118" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E118" s="44" t="n">
+      <c r="E118" s="43">
         <v>8410590004944</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="42" t="s">
+    <row r="119" spans="1:5">
+      <c r="A119" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B119" s="43" t="s">
+      <c r="B119" s="42" t="s">
         <v>69</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -6944,12 +7615,12 @@
       <c r="D119" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E119" s="44" t="n">
+      <c r="E119" s="43">
         <v>3155930001355</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="42" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B120" s="14" t="s">
@@ -6961,12 +7632,12 @@
       <c r="D120" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E120" s="44" t="n">
+      <c r="E120" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="42" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B121" s="14" t="s">
@@ -6978,12 +7649,12 @@
       <c r="D121" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E121" s="44" t="n">
+      <c r="E121" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="42" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B122" s="14" t="s">
@@ -6995,12 +7666,12 @@
       <c r="D122" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E122" s="44" t="n">
+      <c r="E122" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="42" t="s">
+    <row r="123" spans="1:5">
+      <c r="A123" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B123" s="14" t="s">
@@ -7012,12 +7683,12 @@
       <c r="D123" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E123" s="44" t="n">
+      <c r="E123" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="42" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B124" s="14" t="s">
@@ -7029,12 +7700,12 @@
       <c r="D124" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E124" s="44" t="n">
+      <c r="E124" s="43">
         <v>3155930006015</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="42" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B125" s="14" t="s">
@@ -7046,12 +7717,12 @@
       <c r="D125" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E125" s="44" t="n">
+      <c r="E125" s="43">
         <v>8414161001059</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="42" t="s">
+    <row r="126" spans="1:5">
+      <c r="A126" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B126" s="14" t="s">
@@ -7063,12 +7734,12 @@
       <c r="D126" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E126" s="44" t="n">
+      <c r="E126" s="43">
         <v>8410590011416</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="42" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B127" s="14" t="s">
@@ -7080,12 +7751,12 @@
       <c r="D127" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E127" s="44" t="n">
+      <c r="E127" s="43">
         <v>8410590010419</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="42" t="s">
+    <row r="128" spans="1:5">
+      <c r="A128" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B128" s="14" t="s">
@@ -7097,12 +7768,12 @@
       <c r="D128" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E128" s="44" t="n">
+      <c r="E128" s="43">
         <v>8414161001073</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="42" t="s">
+    <row r="129" spans="1:5">
+      <c r="A129" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B129" s="14" t="s">
@@ -7114,12 +7785,12 @@
       <c r="D129" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E129" s="44" t="n">
+      <c r="E129" s="43">
         <v>8410590012543</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="42" t="s">
+    <row r="130" spans="1:5">
+      <c r="A130" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B130" s="14" t="s">
@@ -7131,12 +7802,12 @@
       <c r="D130" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E130" s="44" t="n">
+      <c r="E130" s="43">
         <v>8414161001219</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="42" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B131" s="14" t="s">
@@ -7148,12 +7819,12 @@
       <c r="D131" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E131" s="44" t="n">
+      <c r="E131" s="43">
         <v>8414161001141</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="42" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B132" s="14" t="s">
@@ -7165,12 +7836,12 @@
       <c r="D132" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E132" s="44" t="n">
+      <c r="E132" s="43">
         <v>8414161001172</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="42" t="s">
+    <row r="133" spans="1:5">
+      <c r="A133" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B133" s="14" t="s">
@@ -7182,12 +7853,12 @@
       <c r="D133" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="44" t="n">
+      <c r="E133" s="43">
         <v>8414161001202</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="42" t="s">
+    <row r="134" spans="1:5">
+      <c r="A134" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B134" s="14" t="s">
@@ -7199,12 +7870,12 @@
       <c r="D134" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E134" s="44" t="n">
+      <c r="E134" s="43">
         <v>8414161000038</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="42" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B135" s="14" t="s">
@@ -7216,12 +7887,12 @@
       <c r="D135" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E135" s="44" t="n">
+      <c r="E135" s="43">
         <v>8410590200117</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="42" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B136" s="14" t="s">
@@ -7233,12 +7904,12 @@
       <c r="D136" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E136" s="44" t="n">
+      <c r="E136" s="43">
         <v>8410590200094</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="42" t="s">
+    <row r="137" spans="1:5">
+      <c r="A137" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B137" s="14" t="s">
@@ -7250,12 +7921,12 @@
       <c r="D137" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E137" s="44" t="n">
+      <c r="E137" s="43">
         <v>8414161000052</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="42" t="s">
+    <row r="138" spans="1:5">
+      <c r="A138" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B138" s="14" t="s">
@@ -7267,12 +7938,12 @@
       <c r="D138" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E138" s="44" t="n">
+      <c r="E138" s="43">
         <v>8414161000007</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="42" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B139" s="14" t="s">
@@ -7284,12 +7955,12 @@
       <c r="D139" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E139" s="44" t="n">
+      <c r="E139" s="43">
         <v>8410590004975</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="42" t="s">
+    <row r="140" spans="1:5">
+      <c r="A140" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B140" s="14" t="s">
@@ -7301,15 +7972,15 @@
       <c r="D140" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E140" s="44" t="n">
+      <c r="E140" s="43">
         <v>8410590004982</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="42" t="s">
+    <row r="141" spans="1:5">
+      <c r="A141" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B141" s="43" t="s">
+      <c r="B141" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C141" s="14" t="s">
@@ -7318,15 +7989,15 @@
       <c r="D141" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E141" s="44" t="n">
+      <c r="E141" s="43">
         <v>8410590004999</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="42" t="s">
+    <row r="142" spans="1:5">
+      <c r="A142" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="42" t="s">
         <v>59</v>
       </c>
       <c r="C142" s="14" t="s">
@@ -7335,15 +8006,15 @@
       <c r="D142" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E142" s="44" t="n">
+      <c r="E142" s="43">
         <v>75032715</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="42" t="s">
+    <row r="143" spans="1:5">
+      <c r="A143" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B143" s="43" t="s">
+      <c r="B143" s="42" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="14" t="s">
@@ -7352,15 +8023,15 @@
       <c r="D143" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E143" s="44" t="n">
+      <c r="E143" s="43">
         <v>5410228141266</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="42" t="s">
+    <row r="144" spans="1:5">
+      <c r="A144" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B144" s="43" t="s">
+      <c r="B144" s="42" t="s">
         <v>62</v>
       </c>
       <c r="C144" s="14" t="s">
@@ -7369,15 +8040,15 @@
       <c r="D144" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E144" s="44" t="n">
+      <c r="E144" s="43">
         <v>5410228142072</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="42" t="s">
+    <row r="145" spans="1:5">
+      <c r="A145" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B145" s="43" t="s">
+      <c r="B145" s="42" t="s">
         <v>62</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -7386,15 +8057,15 @@
       <c r="D145" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E145" s="44" t="n">
+      <c r="E145" s="43">
         <v>5410228142218</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="42" t="s">
+    <row r="146" spans="1:5">
+      <c r="A146" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B146" s="43" t="s">
+      <c r="B146" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C146" s="14" t="s">
@@ -7403,15 +8074,15 @@
       <c r="D146" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E146" s="44" t="n">
+      <c r="E146" s="43">
         <v>8414161041185</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="42" t="s">
+    <row r="147" spans="1:5">
+      <c r="A147" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B147" s="43" t="s">
+      <c r="B147" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C147" s="14" t="s">
@@ -7420,15 +8091,15 @@
       <c r="D147" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E147" s="44" t="n">
+      <c r="E147" s="43">
         <v>8410793262936</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="42" t="s">
+    <row r="148" spans="1:5">
+      <c r="A148" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B148" s="43" t="s">
+      <c r="B148" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C148" s="14" t="s">
@@ -7437,15 +8108,15 @@
       <c r="D148" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E148" s="44" t="n">
+      <c r="E148" s="43">
         <v>8414161001042</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="42" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B149" s="43" t="s">
+      <c r="B149" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C149" s="14" t="s">
@@ -7454,15 +8125,15 @@
       <c r="D149" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E149" s="44" t="n">
+      <c r="E149" s="43">
         <v>8414161001080</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="42" t="s">
+    <row r="150" spans="1:5">
+      <c r="A150" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B150" s="43" t="s">
+      <c r="B150" s="42" t="s">
         <v>69</v>
       </c>
       <c r="C150" s="14" t="s">
@@ -7471,15 +8142,15 @@
       <c r="D150" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E150" s="44" t="n">
+      <c r="E150" s="43">
         <v>8410590004944</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="42" t="s">
+    <row r="151" spans="1:5">
+      <c r="A151" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B151" s="43" t="s">
+      <c r="B151" s="42" t="s">
         <v>69</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -7488,15 +8159,15 @@
       <c r="D151" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E151" s="44" t="n">
+      <c r="E151" s="43">
         <v>3155930001355</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="42" t="s">
+    <row r="152" spans="1:5">
+      <c r="A152" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B152" s="43" t="s">
+      <c r="B152" s="42" t="s">
         <v>69</v>
       </c>
       <c r="C152" s="14" t="s">
@@ -7505,15 +8176,15 @@
       <c r="D152" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E152" s="44" t="n">
+      <c r="E152" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="42" t="s">
+    <row r="153" spans="1:5">
+      <c r="A153" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="42" t="s">
         <v>69</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -7522,15 +8193,15 @@
       <c r="D153" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E153" s="44" t="n">
+      <c r="E153" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="42" t="s">
+    <row r="154" spans="1:5">
+      <c r="A154" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B154" s="43" t="s">
+      <c r="B154" s="42" t="s">
         <v>69</v>
       </c>
       <c r="C154" s="14" t="s">
@@ -7539,15 +8210,15 @@
       <c r="D154" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E154" s="44" t="n">
+      <c r="E154" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="42" t="s">
+    <row r="155" spans="1:5">
+      <c r="A155" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B155" s="43" t="s">
+      <c r="B155" s="42" t="s">
         <v>69</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -7556,15 +8227,15 @@
       <c r="D155" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E155" s="44" t="n">
+      <c r="E155" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="42" t="s">
+    <row r="156" spans="1:5">
+      <c r="A156" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B156" s="43" t="s">
+      <c r="B156" s="42" t="s">
         <v>69</v>
       </c>
       <c r="C156" s="14" t="s">
@@ -7573,15 +8244,15 @@
       <c r="D156" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E156" s="44" t="n">
+      <c r="E156" s="43">
         <v>3155930006015</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="42" t="s">
+    <row r="157" spans="1:5">
+      <c r="A157" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B157" s="43" t="s">
+      <c r="B157" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C157" s="14" t="s">
@@ -7590,15 +8261,15 @@
       <c r="D157" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E157" s="44" t="n">
+      <c r="E157" s="43">
         <v>8414161001028</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="42" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B158" s="43" t="s">
+      <c r="B158" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="14" t="s">
@@ -7607,15 +8278,15 @@
       <c r="D158" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E158" s="44" t="n">
+      <c r="E158" s="43">
         <v>8414161001219</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="42" t="s">
+    <row r="159" spans="1:5">
+      <c r="A159" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B159" s="43" t="s">
+      <c r="B159" s="42" t="s">
         <v>38</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -7624,12 +8295,12 @@
       <c r="D159" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E159" s="44" t="n">
+      <c r="E159" s="43">
         <v>8414161001059</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="42" t="s">
+    <row r="160" spans="1:5">
+      <c r="A160" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B160" s="14" t="s">
@@ -7641,12 +8312,12 @@
       <c r="D160" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E160" s="44" t="n">
+      <c r="E160" s="43">
         <v>8414161001073</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="42" t="s">
+    <row r="161" spans="1:5">
+      <c r="A161" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B161" s="14" t="s">
@@ -7658,12 +8329,12 @@
       <c r="D161" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E161" s="44" t="n">
+      <c r="E161" s="43">
         <v>8414161001059</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="42" t="s">
+    <row r="162" spans="1:5">
+      <c r="A162" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B162" s="14" t="s">
@@ -7675,12 +8346,12 @@
       <c r="D162" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E162" s="44" t="n">
+      <c r="E162" s="43">
         <v>8410590011416</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="42" t="s">
+    <row r="163" spans="1:5">
+      <c r="A163" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B163" s="14" t="s">
@@ -7692,12 +8363,12 @@
       <c r="D163" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E163" s="44" t="n">
+      <c r="E163" s="43">
         <v>8410590010419</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="42" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B164" s="14" t="s">
@@ -7709,12 +8380,12 @@
       <c r="D164" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E164" s="44" t="n">
+      <c r="E164" s="43">
         <v>8414161001073</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="42" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B165" s="14" t="s">
@@ -7726,12 +8397,12 @@
       <c r="D165" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E165" s="44" t="n">
+      <c r="E165" s="43">
         <v>8410590012543</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="42" t="s">
+    <row r="166" spans="1:5">
+      <c r="A166" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B166" s="14" t="s">
@@ -7743,12 +8414,12 @@
       <c r="D166" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E166" s="44" t="n">
+      <c r="E166" s="43">
         <v>8414161001219</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="42" t="s">
+    <row r="167" spans="1:5">
+      <c r="A167" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B167" s="14" t="s">
@@ -7760,12 +8431,12 @@
       <c r="D167" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E167" s="44" t="n">
+      <c r="E167" s="43">
         <v>8414161001141</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="42" t="s">
+    <row r="168" spans="1:5">
+      <c r="A168" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B168" s="14" t="s">
@@ -7777,12 +8448,12 @@
       <c r="D168" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E168" s="44" t="n">
+      <c r="E168" s="43">
         <v>8414161001172</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="42" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B169" s="14" t="s">
@@ -7794,12 +8465,12 @@
       <c r="D169" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="44" t="n">
+      <c r="E169" s="43">
         <v>8414161001202</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="42" t="s">
+    <row r="170" spans="1:5">
+      <c r="A170" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B170" s="14" t="s">
@@ -7811,12 +8482,12 @@
       <c r="D170" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E170" s="44" t="n">
+      <c r="E170" s="43">
         <v>8414161000038</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="42" t="s">
+    <row r="171" spans="1:5">
+      <c r="A171" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B171" s="14" t="s">
@@ -7828,12 +8499,12 @@
       <c r="D171" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E171" s="44" t="n">
+      <c r="E171" s="43">
         <v>8410590200117</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="42" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B172" s="14" t="s">
@@ -7845,12 +8516,12 @@
       <c r="D172" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E172" s="44" t="n">
+      <c r="E172" s="43">
         <v>8410590200094</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="42" t="s">
+    <row r="173" spans="1:5">
+      <c r="A173" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B173" s="14" t="s">
@@ -7862,12 +8533,12 @@
       <c r="D173" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E173" s="44" t="n">
+      <c r="E173" s="43">
         <v>8414161000052</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="42" t="s">
+    <row r="174" spans="1:5">
+      <c r="A174" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B174" s="14" t="s">
@@ -7879,12 +8550,12 @@
       <c r="D174" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E174" s="44" t="n">
+      <c r="E174" s="43">
         <v>8414161000007</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="42" t="s">
+    <row r="175" spans="1:5">
+      <c r="A175" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B175" s="14" t="s">
@@ -7896,12 +8567,12 @@
       <c r="D175" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E175" s="44" t="n">
+      <c r="E175" s="43">
         <v>8410590004975</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="42" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B176" s="14" t="s">
@@ -7913,12 +8584,12 @@
       <c r="D176" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E176" s="44" t="n">
+      <c r="E176" s="43">
         <v>8410590004982</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="42" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B177" s="14" t="s">
@@ -7930,12 +8601,12 @@
       <c r="D177" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E177" s="44" t="n">
+      <c r="E177" s="43">
         <v>8410590004999</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="42" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B178" s="14" t="s">
@@ -7947,12 +8618,12 @@
       <c r="D178" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E178" s="44" t="n">
+      <c r="E178" s="43">
         <v>75032715</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="42" t="s">
+    <row r="179" spans="1:5">
+      <c r="A179" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B179" s="14" t="s">
@@ -7964,12 +8635,12 @@
       <c r="D179" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E179" s="44" t="n">
+      <c r="E179" s="43">
         <v>5410228141266</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="42" t="s">
+    <row r="180" spans="1:5">
+      <c r="A180" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B180" s="14" t="s">
@@ -7981,12 +8652,12 @@
       <c r="D180" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E180" s="44" t="n">
+      <c r="E180" s="43">
         <v>5410228142072</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="42" t="s">
+    <row r="181" spans="1:5">
+      <c r="A181" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B181" s="14" t="s">
@@ -7998,12 +8669,12 @@
       <c r="D181" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E181" s="44" t="n">
+      <c r="E181" s="43">
         <v>5410228142218</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="42" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B182" s="14" t="s">
@@ -8015,12 +8686,12 @@
       <c r="D182" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E182" s="44" t="n">
+      <c r="E182" s="43">
         <v>8414161041185</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="42" t="s">
+    <row r="183" spans="1:5">
+      <c r="A183" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B183" s="14" t="s">
@@ -8032,12 +8703,12 @@
       <c r="D183" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E183" s="44" t="n">
+      <c r="E183" s="43">
         <v>8410793262936</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="42" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B184" s="14" t="s">
@@ -8049,12 +8720,12 @@
       <c r="D184" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E184" s="44" t="n">
+      <c r="E184" s="43">
         <v>8414161001042</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="42" t="s">
+    <row r="185" spans="1:5">
+      <c r="A185" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B185" s="14" t="s">
@@ -8066,12 +8737,12 @@
       <c r="D185" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E185" s="44" t="n">
+      <c r="E185" s="43">
         <v>8414161001080</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="42" t="s">
+    <row r="186" spans="1:5">
+      <c r="A186" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B186" s="14" t="s">
@@ -8083,12 +8754,12 @@
       <c r="D186" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E186" s="44" t="n">
+      <c r="E186" s="43">
         <v>8410590004944</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="42" t="s">
+    <row r="187" spans="1:5">
+      <c r="A187" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B187" s="14" t="s">
@@ -8100,12 +8771,12 @@
       <c r="D187" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E187" s="44" t="n">
+      <c r="E187" s="43">
         <v>3155930001355</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="42" t="s">
+    <row r="188" spans="1:5">
+      <c r="A188" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B188" s="14" t="s">
@@ -8117,12 +8788,12 @@
       <c r="D188" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E188" s="44" t="n">
+      <c r="E188" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="42" t="s">
+    <row r="189" spans="1:5">
+      <c r="A189" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B189" s="14" t="s">
@@ -8134,12 +8805,12 @@
       <c r="D189" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E189" s="44" t="n">
+      <c r="E189" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="42" t="s">
+    <row r="190" spans="1:5">
+      <c r="A190" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B190" s="14" t="s">
@@ -8151,12 +8822,12 @@
       <c r="D190" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E190" s="44" t="n">
+      <c r="E190" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="42" t="s">
+    <row r="191" spans="1:5">
+      <c r="A191" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B191" s="14" t="s">
@@ -8168,12 +8839,12 @@
       <c r="D191" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E191" s="44" t="n">
+      <c r="E191" s="43">
         <v>8410590004890</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="42" t="s">
+    <row r="192" spans="1:5">
+      <c r="A192" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B192" s="14" t="s">
@@ -8185,12 +8856,12 @@
       <c r="D192" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E192" s="44" t="n">
+      <c r="E192" s="43">
         <v>3155930006015</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="42" t="s">
+    <row r="193" spans="1:5">
+      <c r="A193" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B193" s="14" t="s">
@@ -8202,12 +8873,12 @@
       <c r="D193" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E193" s="44" t="n">
+      <c r="E193" s="43">
         <v>8414161001028</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="42" t="s">
+    <row r="194" spans="1:5">
+      <c r="A194" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B194" s="14" t="s">
@@ -8219,12 +8890,12 @@
       <c r="D194" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E194" s="44" t="n">
+      <c r="E194" s="43">
         <v>8414161001219</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="42" t="s">
+    <row r="195" spans="1:5">
+      <c r="A195" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B195" s="14" t="s">
@@ -8236,12 +8907,12 @@
       <c r="D195" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E195" s="44" t="n">
+      <c r="E195" s="43">
         <v>8414161001059</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="42" t="s">
+    <row r="196" spans="1:5">
+      <c r="A196" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B196" s="14" t="s">
@@ -8253,127 +8924,120 @@
       <c r="D196" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E196" s="44" t="n">
+      <c r="E196" s="43">
         <v>8414161001073</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:E196" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="20"/>
+    <col min="2" max="2" width="20.28515625"/>
+    <col min="3" max="3" width="22.7109375"/>
+    <col min="4" max="4" width="25.85546875"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="n">
+      <c r="B3" s="46">
         <v>2</v>
       </c>
-      <c r="C3" s="47" t="n">
+      <c r="C3" s="46">
         <v>0</v>
       </c>
-      <c r="D3" s="47" t="n">
+      <c r="D3" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="n">
+      <c r="B4" s="46">
         <v>4</v>
       </c>
-      <c r="C4" s="47" t="n">
+      <c r="C4" s="46">
         <v>0</v>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="D4" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="46">
         <v>5</v>
       </c>
-      <c r="B5" s="47" t="n">
+      <c r="B5" s="46">
         <v>6</v>
       </c>
-      <c r="C5" s="47" t="n">
+      <c r="C5" s="46">
         <v>1</v>
       </c>
-      <c r="D5" s="47" t="n">
+      <c r="D5" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="46">
         <v>7</v>
       </c>
-      <c r="B6" s="47" t="n">
+      <c r="B6" s="46">
         <v>100</v>
       </c>
-      <c r="C6" s="47" t="n">
+      <c r="C6" s="46">
         <v>1</v>
       </c>
-      <c r="D6" s="47" t="n">
+      <c r="D6" s="46">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
